--- a/data_analyzed/vsPrediction.xlsx
+++ b/data_analyzed/vsPrediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q392"/>
+  <dimension ref="A1:Q413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,16 +567,16 @@
         <v>1.844858064658562</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798135</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1798612057072802</v>
+        <v>0.1792896111857978</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3549091890336346</v>
+        <v>-0.3512158784578981</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.342186693952191</v>
+        <v>2.380963454857477</v>
       </c>
     </row>
     <row r="3">
@@ -626,16 +626,16 @@
         <v>1.728607822021318</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1731799321643124</v>
+        <v>0.1724054460477815</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3756750884999862</v>
+        <v>-0.3659930298147874</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.363763832751233</v>
+        <v>2.375964227502364</v>
       </c>
     </row>
     <row r="4">
@@ -685,16 +685,16 @@
         <v>2.647587210590345</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1739464061526402</v>
+        <v>0.1728352144891187</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4966511589219186</v>
+        <v>-0.4804865317624643</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.448412919439925</v>
+        <v>2.433970133373164</v>
       </c>
     </row>
     <row r="5">
@@ -744,16 +744,16 @@
         <v>1.5</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798143</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09584143809406555</v>
+        <v>0.09408339528258064</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.008947568241802831</v>
+        <v>-0.01050321240395517</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.900512566919039</v>
+        <v>1.98955035707877</v>
       </c>
     </row>
     <row r="6">
@@ -803,16 +803,16 @@
         <v>2.580591667266205</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1260103780144863</v>
+        <v>0.1239422288019166</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2741722170972123</v>
+        <v>-0.2724684913272327</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35180221431537</v>
+        <v>2.354009335612907</v>
       </c>
     </row>
     <row r="7">
@@ -862,16 +862,16 @@
         <v>1.708379432132074</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798139</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09007841359368221</v>
+        <v>0.08828482202460161</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03677402580896788</v>
+        <v>0.03431501563673443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.881640957046893</v>
+        <v>1.968851399208298</v>
       </c>
     </row>
     <row r="8">
@@ -921,16 +921,16 @@
         <v>1.821542113347376</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798139</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1196406551711082</v>
+        <v>0.1182010111187119</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1395430434643138</v>
+        <v>-0.1348911694136583</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.019740061642853</v>
+        <v>2.085805128865901</v>
       </c>
     </row>
     <row r="9">
@@ -980,16 +980,16 @@
         <v>1.671943525743188</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798137</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1719078081726757</v>
+        <v>0.1709209539052145</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4177627485116615</v>
+        <v>-0.4103471216602977</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3702105555275</v>
+        <v>2.394562701634887</v>
       </c>
     </row>
     <row r="10">
@@ -1039,16 +1039,16 @@
         <v>3.496408903530772</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1082491557838676</v>
+        <v>0.1059115810107826</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.2087310240960683</v>
+        <v>-0.2068319525799218</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.272723674589459</v>
+        <v>2.278147625583496</v>
       </c>
     </row>
     <row r="11">
@@ -1098,16 +1098,16 @@
         <v>5.462320517769457</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1268605289215095</v>
+        <v>0.1246800621613965</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.3422383576928677</v>
+        <v>-0.3348579080640646</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.371264126664408</v>
+        <v>2.360273035120755</v>
       </c>
     </row>
     <row r="12">
@@ -1157,16 +1157,16 @@
         <v>2.172667548801921</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3771943952471558</v>
+        <v>0.3807233888328403</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.8439934897776651</v>
+        <v>-0.8368330733689363</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.961902432925484</v>
+        <v>2.983607642054331</v>
       </c>
     </row>
     <row r="13">
@@ -1216,16 +1216,16 @@
         <v>1.807058350084073</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3925959034559124</v>
+        <v>0.3965878537892954</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.022668226722049</v>
+        <v>-0.9910770349595203</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.843326339405061</v>
+        <v>2.855612076761588</v>
       </c>
     </row>
     <row r="14">
@@ -1275,16 +1275,16 @@
         <v>1.207439731910768</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1872046084854551</v>
+        <v>0.1868756204341005</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2918798689811593</v>
+        <v>-0.2916924769199621</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.455131120790682</v>
+        <v>2.464994271716022</v>
       </c>
     </row>
     <row r="15">
@@ -1334,16 +1334,16 @@
         <v>2.059269257706759</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2342990927421609</v>
+        <v>0.2347547161337351</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.4970825226048408</v>
+        <v>-0.490387693790085</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.615725302971347</v>
+        <v>2.613331708703653</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         <v>1.5</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02109602163799928</v>
+        <v>0.01774487732883713</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3360445344386279</v>
+        <v>0.3206250891959755</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.959428181313138</v>
+        <v>1.982538704159282</v>
       </c>
     </row>
     <row r="17">
@@ -1452,16 +1452,16 @@
         <v>3.272389912591655</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06449865229736043</v>
+        <v>0.06182154506179759</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1091614580543432</v>
+        <v>0.1023012103016626</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.084595255509724</v>
+        <v>2.100925876511906</v>
       </c>
     </row>
     <row r="18">
@@ -1511,16 +1511,16 @@
         <v>1.998931804106595</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02311008073812731</v>
+        <v>0.01962519575190462</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2757438077564651</v>
+        <v>0.2624527930243887</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.001464829464148</v>
+        <v>2.015886064585228</v>
       </c>
     </row>
     <row r="19">
@@ -1570,16 +1570,16 @@
         <v>1.826853505925816</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05070107034366012</v>
+        <v>0.04743872369284858</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1119197725371834</v>
+        <v>0.1014402268818964</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.174147494087596</v>
+        <v>2.168513783531956</v>
       </c>
     </row>
     <row r="20">
@@ -1629,16 +1629,16 @@
         <v>2.96380128531647</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O20" t="n">
-        <v>0.06272218241825944</v>
+        <v>0.05964490356067662</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03893703927523554</v>
+        <v>0.03231822735508662</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.203813713078851</v>
+        <v>2.194463163103514</v>
       </c>
     </row>
     <row r="21">
@@ -1688,16 +1688,16 @@
         <v>3.42327944854551</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O21" t="n">
-        <v>0.05637768571421414</v>
+        <v>0.05360035884348847</v>
       </c>
       <c r="P21" t="n">
-        <v>0.1406574678734205</v>
+        <v>0.13448717609964</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.040780335998753</v>
+        <v>2.058583060506543</v>
       </c>
     </row>
     <row r="22">
@@ -1747,16 +1747,16 @@
         <v>8.24997926544602</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O22" t="n">
-        <v>0.09105003665242849</v>
+        <v>0.08855294070213185</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.05398031238975246</v>
+        <v>-0.05858725682668148</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.259831480896651</v>
+        <v>2.256595670781204</v>
       </c>
     </row>
     <row r="23">
@@ -1806,16 +1806,16 @@
         <v>1.415747445584816</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1941948381648324</v>
+        <v>0.1941447885113359</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.3169138573714433</v>
+        <v>-0.3115142288430897</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.409116715018979</v>
+        <v>2.422837922067826</v>
       </c>
     </row>
     <row r="24">
@@ -1865,16 +1865,16 @@
         <v>1.457166557930944</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O24" t="n">
-        <v>0.09131291338679472</v>
+        <v>0.08844747100679179</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.1755410093761361</v>
+        <v>-0.1742340532493994</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.348826682377621</v>
+        <v>2.319414113478391</v>
       </c>
     </row>
     <row r="25">
@@ -1924,16 +1924,16 @@
         <v>1.723654283218965</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1810422050216871</v>
+        <v>0.180457263153196</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.2905652899764071</v>
+        <v>-0.2926604551133128</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.480949564059407</v>
+        <v>2.487493062676756</v>
       </c>
     </row>
     <row r="26">
@@ -1983,16 +1983,16 @@
         <v>2.54413297204941</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2291522257489343</v>
+        <v>0.2294193441075156</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.5011067282092643</v>
+        <v>-0.494775927212993</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.622712021521862</v>
+        <v>2.617559882229601</v>
       </c>
     </row>
     <row r="27">
@@ -2042,16 +2042,16 @@
         <v>2.081644535138098</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04228505421823811</v>
+        <v>0.03930395235124604</v>
       </c>
       <c r="P27" t="n">
-        <v>0.2487796564727769</v>
+        <v>0.2345064555209277</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.004783993751054</v>
+        <v>2.035622832520443</v>
       </c>
     </row>
     <row r="28">
@@ -2101,16 +2101,16 @@
         <v>1.726146657595</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08649354265533046</v>
+        <v>0.08412359373318495</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01711170212470953</v>
+        <v>0.01069075723935832</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.185840403614085</v>
+        <v>2.196734720077232</v>
       </c>
     </row>
     <row r="29">
@@ -2160,16 +2160,16 @@
         <v>1.588891666696527</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1007784729401073</v>
+        <v>0.09839177158660588</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.09361477843240421</v>
+        <v>-0.09894031301607734</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.31730264267618</v>
+        <v>2.310763125194701</v>
       </c>
     </row>
     <row r="30">
@@ -2219,16 +2219,16 @@
         <v>4.019559683803267</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O30" t="n">
-        <v>0.08029929422007998</v>
+        <v>0.07805844601658363</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07349787457199877</v>
+        <v>0.0686610669212626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.072139949825595</v>
+        <v>2.099228417984758</v>
       </c>
     </row>
     <row r="31">
@@ -2278,16 +2278,16 @@
         <v>5.121375455185438</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O31" t="n">
-        <v>0.1057515082685664</v>
+        <v>0.10337239068922</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1156374516078891</v>
+        <v>-0.1225624834359822</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.367958631438822</v>
+        <v>2.357811968201751</v>
       </c>
     </row>
     <row r="32">
@@ -2337,16 +2337,16 @@
         <v>1.199133525372978</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O32" t="n">
-        <v>0.4628022782228615</v>
+        <v>0.4675462583013252</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9598539035465262</v>
+        <v>-0.9805058928944902</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.579892543641986</v>
+        <v>3.572487026309922</v>
       </c>
     </row>
     <row r="33">
@@ -2396,16 +2396,16 @@
         <v>2.470092199820184</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O33" t="n">
-        <v>0.102405683903139</v>
+        <v>0.09958351015281069</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.245228849018888</v>
+        <v>-0.243880722191415</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.433559319760349</v>
+        <v>2.395817916403408</v>
       </c>
     </row>
     <row r="34">
@@ -2455,16 +2455,16 @@
         <v>2.613493387689336</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O34" t="n">
-        <v>0.105055764277891</v>
+        <v>0.1026696598903782</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.1572432668095801</v>
+        <v>-0.1579864778837957</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.329073449490794</v>
+        <v>2.316309749260333</v>
       </c>
     </row>
     <row r="35">
@@ -2514,16 +2514,16 @@
         <v>5.59979144537937</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1703723444341722</v>
+        <v>0.1694346446379875</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.2476013618110706</v>
+        <v>-0.2517749979503263</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.582989592793893</v>
+        <v>2.55343458322383</v>
       </c>
     </row>
     <row r="36">
@@ -2573,16 +2573,16 @@
         <v>3.263840307338731</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O36" t="n">
-        <v>0.3453262685962351</v>
+        <v>0.3477921163694801</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.8062147349490373</v>
+        <v>-0.8012267141985575</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.084934579349583</v>
+        <v>3.054852029145471</v>
       </c>
     </row>
     <row r="37">
@@ -2632,16 +2632,16 @@
         <v>2.03639656291677</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798094</v>
       </c>
       <c r="O37" t="n">
-        <v>0.04537524173197327</v>
+        <v>0.04156637467045694</v>
       </c>
       <c r="P37" t="n">
-        <v>0.04748940286201478</v>
+        <v>0.04093377780807157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.392648871622928</v>
+        <v>2.31636573724318</v>
       </c>
     </row>
     <row r="38">
@@ -2691,16 +2691,16 @@
         <v>2.620206970132592</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798096</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05814663958165792</v>
+        <v>0.0541283657074953</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.09416005320399363</v>
+        <v>-0.1001183049704465</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.561989038912321</v>
+        <v>2.463026150408642</v>
       </c>
     </row>
     <row r="39">
@@ -2750,16 +2750,16 @@
         <v>3.133383848491317</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798098</v>
       </c>
       <c r="O39" t="n">
-        <v>0.08134691490697564</v>
+        <v>0.0778157677887998</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.1715911847722134</v>
+        <v>-0.1752874269731027</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.602300104089505</v>
+        <v>2.50816052118581</v>
       </c>
     </row>
     <row r="40">
@@ -2809,16 +2809,16 @@
         <v>3.64270118323767</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.050486093557981</v>
       </c>
       <c r="O40" t="n">
-        <v>0.07949584070122706</v>
+        <v>0.07595533935049695</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.1674658963062725</v>
+        <v>-0.170760798572142</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.575358733168793</v>
+        <v>2.486325382436982</v>
       </c>
     </row>
     <row r="41">
@@ -2868,16 +2868,16 @@
         <v>4.290729515505714</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798103</v>
       </c>
       <c r="O41" t="n">
-        <v>0.06243895307379872</v>
+        <v>0.05929712537780763</v>
       </c>
       <c r="P41" t="n">
-        <v>0.04223368114298234</v>
+        <v>0.03692680441869238</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.281439863915101</v>
+        <v>2.243680783149069</v>
       </c>
     </row>
     <row r="42">
@@ -2927,16 +2927,16 @@
         <v>5.918653853669987</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O42" t="n">
-        <v>0.09501598570352351</v>
+        <v>0.0917528614638224</v>
       </c>
       <c r="P42" t="n">
-        <v>-0.272831270992028</v>
+        <v>-0.2702429024741997</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.561580080415203</v>
+        <v>2.482193317692905</v>
       </c>
     </row>
     <row r="43">
@@ -2986,16 +2986,16 @@
         <v>3.026209047968498</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O43" t="n">
-        <v>0.09532313559874581</v>
+        <v>0.09210150328557916</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.2627415267963351</v>
+        <v>-0.2612100247008985</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.545614293159036</v>
+        <v>2.47305112025619</v>
       </c>
     </row>
     <row r="44">
@@ -3045,16 +3045,16 @@
         <v>3.377536325126487</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1016878844595644</v>
+        <v>0.09854597928316952</v>
       </c>
       <c r="P44" t="n">
-        <v>-0.314566060394014</v>
+        <v>-0.3103546942876615</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.550661726515445</v>
+        <v>2.479387238881508</v>
       </c>
     </row>
     <row r="45">
@@ -3104,16 +3104,16 @@
         <v>5.295671251745017</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O45" t="n">
-        <v>0.2080856374938431</v>
+        <v>0.2081657150566723</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.2978696664109967</v>
+        <v>-0.3045327755262229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.564976834346894</v>
+        <v>2.576493600888374</v>
       </c>
     </row>
     <row r="46">
@@ -3163,16 +3163,16 @@
         <v>3.199112066646072</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O46" t="n">
-        <v>0.3417922209087819</v>
+        <v>0.3442498616030347</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.7465819319206666</v>
+        <v>-0.7486460887414962</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.054685570112993</v>
+        <v>3.0457614449913</v>
       </c>
     </row>
     <row r="47">
@@ -3222,16 +3222,16 @@
         <v>1.5</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O47" t="n">
-        <v>0.03833853069784027</v>
+        <v>0.0347968531645831</v>
       </c>
       <c r="P47" t="n">
-        <v>0.131134574202896</v>
+        <v>0.1210596396711515</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.133021238598786</v>
+        <v>2.128959944832399</v>
       </c>
     </row>
     <row r="48">
@@ -3281,16 +3281,16 @@
         <v>5.050338561744792</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O48" t="n">
-        <v>0.1051985919631468</v>
+        <v>0.1028024753246311</v>
       </c>
       <c r="P48" t="n">
-        <v>-0.1085695738710529</v>
+        <v>-0.116214625889618</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.376594572952469</v>
+        <v>2.364832285888958</v>
       </c>
     </row>
     <row r="49">
@@ -3340,16 +3340,16 @@
         <v>1.941323460634564</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O49" t="n">
-        <v>0.06011742952955895</v>
+        <v>0.056953672677441</v>
       </c>
       <c r="P49" t="n">
-        <v>0.04139528015272545</v>
+        <v>0.03394126580209077</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.202350586949767</v>
+        <v>2.194550931836937</v>
       </c>
     </row>
     <row r="50">
@@ -3399,16 +3399,16 @@
         <v>2.493398537909269</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O50" t="n">
-        <v>0.06882410915414017</v>
+        <v>0.06536116340687316</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.07524728609374519</v>
+        <v>-0.08379874097976504</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.381351900335752</v>
+        <v>2.34748570362423</v>
       </c>
     </row>
     <row r="51">
@@ -3458,16 +3458,16 @@
         <v>3.046190183626561</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O51" t="n">
-        <v>0.08111622893222836</v>
+        <v>0.07796311413894561</v>
       </c>
       <c r="P51" t="n">
-        <v>-0.1083602558315069</v>
+        <v>-0.1150750792567044</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.387186726549274</v>
+        <v>2.357046536655835</v>
       </c>
     </row>
     <row r="52">
@@ -3517,16 +3517,16 @@
         <v>3.685445647115446</v>
       </c>
       <c r="N52" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O52" t="n">
-        <v>0.05606618488999034</v>
+        <v>0.05291984163580226</v>
       </c>
       <c r="P52" t="n">
-        <v>0.06097415493293015</v>
+        <v>0.0546300746581065</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.141676387621612</v>
+        <v>2.143013409548372</v>
       </c>
     </row>
     <row r="53">
@@ -3576,16 +3576,16 @@
         <v>5.676885826593677</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O53" t="n">
-        <v>0.09098172056768553</v>
+        <v>0.08805561633108366</v>
       </c>
       <c r="P53" t="n">
-        <v>-0.1728649373860627</v>
+        <v>-0.1731972861476125</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.377644549750523</v>
+        <v>2.344520016508476</v>
       </c>
     </row>
     <row r="54">
@@ -3635,16 +3635,16 @@
         <v>2.91069172551518</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O54" t="n">
-        <v>0.08356002450178851</v>
+        <v>0.08039492184506783</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.1722143130156114</v>
+        <v>-0.1729676793769396</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.37749046027496</v>
+        <v>2.34202226679306</v>
       </c>
     </row>
     <row r="55">
@@ -3694,16 +3694,16 @@
         <v>3.27689043800499</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O55" t="n">
-        <v>0.09770707430065084</v>
+        <v>0.09478362679377615</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.2391155286338259</v>
+        <v>-0.2372660497444745</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.415266227088066</v>
+        <v>2.377944840780533</v>
       </c>
     </row>
     <row r="56">
@@ -3753,16 +3753,16 @@
         <v>6.119926271633436</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.1958095943478445</v>
+        <v>0.195597879443323</v>
       </c>
       <c r="P56" t="n">
-        <v>-0.374382042278243</v>
+        <v>-0.3700487613070285</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.426871779664018</v>
+        <v>2.449314713434083</v>
       </c>
     </row>
     <row r="57">
@@ -3812,16 +3812,16 @@
         <v>3.126250181706411</v>
       </c>
       <c r="N57" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O57" t="n">
-        <v>0.4647505742016759</v>
+        <v>0.4700409663343362</v>
       </c>
       <c r="P57" t="n">
-        <v>-1.014916290422769</v>
+        <v>-1.014756620618888</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.292800639603439</v>
+        <v>3.311310235321202</v>
       </c>
     </row>
     <row r="58">
@@ -3871,16 +3871,16 @@
         <v>2.770910086394021</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798129</v>
       </c>
       <c r="O58" t="n">
-        <v>0.1668140198180414</v>
+        <v>0.1654441232570132</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.4825930840435722</v>
+        <v>-0.4702425423067381</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.462233697878403</v>
+        <v>2.450627730215449</v>
       </c>
     </row>
     <row r="59">
@@ -3930,16 +3930,16 @@
         <v>3.259669264009358</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1538418040500789</v>
+        <v>0.1522149824232899</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.4086481044121325</v>
+        <v>-0.4016305962572069</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.451570427164819</v>
+        <v>2.442325669212849</v>
       </c>
     </row>
     <row r="60">
@@ -3989,16 +3989,16 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798135</v>
       </c>
       <c r="O60" t="n">
-        <v>0.182570884391283</v>
+        <v>0.1812213991444637</v>
       </c>
       <c r="P60" t="n">
-        <v>-0.6423692329200037</v>
+        <v>-0.624168902434956</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.535753354223055</v>
+        <v>2.516968370759702</v>
       </c>
     </row>
     <row r="61">
@@ -4048,16 +4048,16 @@
         <v>1.500000000000001</v>
       </c>
       <c r="N61" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798132</v>
       </c>
       <c r="O61" t="n">
-        <v>0.1688468095934587</v>
+        <v>0.1671699415304373</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.583443349721013</v>
+        <v>-0.5691327998038672</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.546446454890904</v>
+        <v>2.520880332170406</v>
       </c>
     </row>
     <row r="62">
@@ -4107,16 +4107,16 @@
         <v>2.095521689831633</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798131</v>
       </c>
       <c r="O62" t="n">
-        <v>0.1951252969784563</v>
+        <v>0.194019355100549</v>
       </c>
       <c r="P62" t="n">
-        <v>-0.651946257464291</v>
+        <v>-0.6359918970542185</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.614397229730577</v>
+        <v>2.58749637483987</v>
       </c>
     </row>
     <row r="63">
@@ -4166,16 +4166,16 @@
         <v>5.739635981474016</v>
       </c>
       <c r="N63" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O63" t="n">
-        <v>0.1245704479093779</v>
+        <v>0.1226168284731484</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.2585122500529002</v>
+        <v>-0.2523219070018858</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.315646542352916</v>
+        <v>2.310179371062892</v>
       </c>
     </row>
     <row r="64">
@@ -4225,16 +4225,16 @@
         <v>2.464913627314083</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O64" t="n">
-        <v>0.1284808140630605</v>
+        <v>0.1263662658727777</v>
       </c>
       <c r="P64" t="n">
-        <v>-0.3285007900789727</v>
+        <v>-0.3212160949719912</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.394331668167619</v>
+        <v>2.375252892400194</v>
       </c>
     </row>
     <row r="65">
@@ -4284,16 +4284,16 @@
         <v>3.165140256045842</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1231480475773052</v>
+        <v>0.120926580107529</v>
       </c>
       <c r="P65" t="n">
-        <v>-0.3087291942848144</v>
+        <v>-0.3023678508103218</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.380171257524728</v>
+        <v>2.362484951716535</v>
       </c>
     </row>
     <row r="66">
@@ -4343,16 +4343,16 @@
         <v>6.813568647764912</v>
       </c>
       <c r="N66" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1646661013178308</v>
+        <v>0.1632849079307548</v>
       </c>
       <c r="P66" t="n">
-        <v>-0.3867812429824621</v>
+        <v>-0.3850532543267098</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.521961533278223</v>
+        <v>2.511233261006509</v>
       </c>
     </row>
     <row r="67">
@@ -4402,16 +4402,16 @@
         <v>3.052775502476929</v>
       </c>
       <c r="N67" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O67" t="n">
-        <v>0.338721291704089</v>
+        <v>0.341102970725435</v>
       </c>
       <c r="P67" t="n">
-        <v>-0.7930470216496502</v>
+        <v>-0.7890172203899378</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.995808801511052</v>
+        <v>2.990188712778084</v>
       </c>
     </row>
     <row r="68">
@@ -4461,16 +4461,16 @@
         <v>2.153998136042699</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O68" t="n">
-        <v>0.1628359699064061</v>
+        <v>0.1608809307317347</v>
       </c>
       <c r="P68" t="n">
-        <v>-0.5431389828375536</v>
+        <v>-0.5351936424379296</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.644809704902591</v>
+        <v>2.601515528144716</v>
       </c>
     </row>
     <row r="69">
@@ -4520,16 +4520,16 @@
         <v>2.497156309589158</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O69" t="n">
-        <v>0.1316167664524475</v>
+        <v>0.1288707951837693</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.4674811841459963</v>
+        <v>-0.4634988660958271</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.620520582908561</v>
+        <v>2.569645501573648</v>
       </c>
     </row>
     <row r="70">
@@ -4579,16 +4579,16 @@
         <v>1.952688185987762</v>
       </c>
       <c r="N70" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798131</v>
       </c>
       <c r="O70" t="n">
-        <v>0.06818256939152639</v>
+        <v>0.06594886637806309</v>
       </c>
       <c r="P70" t="n">
-        <v>0.09879220991513837</v>
+        <v>0.09837405360140576</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.855520881275246</v>
+        <v>1.922336436247586</v>
       </c>
     </row>
     <row r="71">
@@ -4638,16 +4638,16 @@
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O71" t="n">
-        <v>0.1242718041924681</v>
+        <v>0.1217764080596858</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.390927942132633</v>
+        <v>-0.3843001669095166</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.435916991245094</v>
+        <v>2.414953714421834</v>
       </c>
     </row>
     <row r="72">
@@ -4697,16 +4697,16 @@
         <v>1.5</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.1524779139442201</v>
+        <v>0.1503270731116582</v>
       </c>
       <c r="P72" t="n">
-        <v>-0.5285021794887512</v>
+        <v>-0.5190603554253548</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.588672839728139</v>
+        <v>2.549527947619843</v>
       </c>
     </row>
     <row r="73">
@@ -4756,16 +4756,16 @@
         <v>5.899427772754235</v>
       </c>
       <c r="N73" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O73" t="n">
-        <v>0.1257025976971547</v>
+        <v>0.1232084554549291</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.3759350763474795</v>
+        <v>-0.3700224862527678</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.506111150874071</v>
+        <v>2.464717931434754</v>
       </c>
     </row>
     <row r="74">
@@ -4815,16 +4815,16 @@
         <v>2.343511149891474</v>
       </c>
       <c r="N74" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O74" t="n">
-        <v>0.1176620173935423</v>
+        <v>0.1148267294649007</v>
       </c>
       <c r="P74" t="n">
-        <v>-0.3865146194741412</v>
+        <v>-0.381716905571529</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.539232506429972</v>
+        <v>2.489437361450688</v>
       </c>
     </row>
     <row r="75">
@@ -4874,16 +4874,16 @@
         <v>3.069429141374025</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O75" t="n">
-        <v>0.1251948432730514</v>
+        <v>0.122624357333192</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.3976355997703972</v>
+        <v>-0.3908815110567656</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.512720299066846</v>
+        <v>2.469883882094202</v>
       </c>
     </row>
     <row r="76">
@@ -4933,16 +4933,16 @@
         <v>6.02161175586238</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O76" t="n">
-        <v>0.1328787488481171</v>
+        <v>0.1307574589510328</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.2772843296101218</v>
+        <v>-0.2790098058905444</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.53608094911243</v>
+        <v>2.498574601046151</v>
       </c>
     </row>
     <row r="77">
@@ -4992,16 +4992,16 @@
         <v>3.01479743913432</v>
       </c>
       <c r="N77" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O77" t="n">
-        <v>0.229220627528495</v>
+        <v>0.2292056100678099</v>
       </c>
       <c r="P77" t="n">
-        <v>-0.5580945545519957</v>
+        <v>-0.5514745458653804</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.725353714922144</v>
+        <v>2.69803167198748</v>
       </c>
     </row>
     <row r="78">
@@ -5051,16 +5051,16 @@
         <v>1.810949136765171</v>
       </c>
       <c r="N78" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O78" t="n">
-        <v>0.09467723576861301</v>
+        <v>0.09187543403240286</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.1399038151754224</v>
+        <v>-0.1435868638502987</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.413183564413116</v>
+        <v>2.377052003844148</v>
       </c>
     </row>
     <row r="79">
@@ -5110,16 +5110,16 @@
         <v>2.175746907398207</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O79" t="n">
-        <v>0.1013524042525663</v>
+        <v>0.09850864329721314</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.2000469901765995</v>
+        <v>-0.2032096804123676</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.4822854921051</v>
+        <v>2.437086731455747</v>
       </c>
     </row>
     <row r="80">
@@ -5169,16 +5169,16 @@
         <v>1.80702593829495</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O80" t="n">
-        <v>0.19070629714869</v>
+        <v>0.1905326798319545</v>
       </c>
       <c r="P80" t="n">
-        <v>-0.2473179424792465</v>
+        <v>-0.2503718598325104</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.490711086175829</v>
+        <v>2.495143509595997</v>
       </c>
     </row>
     <row r="81">
@@ -5228,16 +5228,16 @@
         <v>2.06249217287371</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O81" t="n">
-        <v>0.1192550975693611</v>
+        <v>0.1167076611145184</v>
       </c>
       <c r="P81" t="n">
-        <v>-0.2741735896124471</v>
+        <v>-0.2757181656010836</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.543448892420916</v>
+        <v>2.495799596591663</v>
       </c>
     </row>
     <row r="82">
@@ -5287,16 +5287,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O82" t="n">
-        <v>0.1134977469090493</v>
+        <v>0.1105455451590093</v>
       </c>
       <c r="P82" t="n">
-        <v>-0.3380634868736805</v>
+        <v>-0.3349606859515077</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.634614041652702</v>
+        <v>2.55174741658037</v>
       </c>
     </row>
     <row r="83">
@@ -5346,16 +5346,16 @@
         <v>5.513567331104245</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O83" t="n">
-        <v>0.1176021083657074</v>
+        <v>0.1148609935133892</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.3318273181980758</v>
+        <v>-0.3290819532288885</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.573633243114999</v>
+        <v>2.511265090776547</v>
       </c>
     </row>
     <row r="84">
@@ -5405,16 +5405,16 @@
         <v>2.235645133599836</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O84" t="n">
-        <v>0.1142964336191465</v>
+        <v>0.1115098857856589</v>
       </c>
       <c r="P84" t="n">
-        <v>-0.3299756120492141</v>
+        <v>-0.3262803813444976</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.539480224327916</v>
+        <v>2.482180999099838</v>
       </c>
     </row>
     <row r="85">
@@ -5464,16 +5464,16 @@
         <v>2.982608828258409</v>
       </c>
       <c r="N85" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O85" t="n">
-        <v>0.1130930207587252</v>
+        <v>0.1101717524339595</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.3583563602620768</v>
+        <v>-0.3539917295594254</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.557927121766367</v>
+        <v>2.496989498004244</v>
       </c>
     </row>
     <row r="86">
@@ -5523,16 +5523,16 @@
         <v>5.241688687644128</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O86" t="n">
-        <v>0.1758209992122604</v>
+        <v>0.1752222848897214</v>
       </c>
       <c r="P86" t="n">
-        <v>-0.2208778372364468</v>
+        <v>-0.2268850714689558</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.480475574918838</v>
+        <v>2.486102176452166</v>
       </c>
     </row>
     <row r="87">
@@ -5582,16 +5582,16 @@
         <v>2.980426928740402</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O87" t="n">
-        <v>0.2872934063732381</v>
+        <v>0.2885517476476078</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.6233571920822841</v>
+        <v>-0.625767413126628</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.919671001271332</v>
+        <v>2.904543852328047</v>
       </c>
     </row>
     <row r="88">
@@ -5641,16 +5641,16 @@
         <v>1.558326255560519</v>
       </c>
       <c r="N88" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O88" t="n">
-        <v>0.07676878553091868</v>
+        <v>0.07425030658612533</v>
       </c>
       <c r="P88" t="n">
-        <v>0.06785027003891031</v>
+        <v>0.06012973298124775</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.164150549218888</v>
+        <v>2.172584004713884</v>
       </c>
     </row>
     <row r="89">
@@ -5700,16 +5700,16 @@
         <v>1.932003182449276</v>
       </c>
       <c r="N89" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O89" t="n">
-        <v>0.08303008966994374</v>
+        <v>0.08040173323554622</v>
       </c>
       <c r="P89" t="n">
-        <v>-0.01333908105015447</v>
+        <v>-0.01918303992648042</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.244136370311477</v>
+        <v>2.238974086944864</v>
       </c>
     </row>
     <row r="90">
@@ -5759,16 +5759,16 @@
         <v>1.778107896193258</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O90" t="n">
-        <v>0.06550975927947712</v>
+        <v>0.06245176215607344</v>
       </c>
       <c r="P90" t="n">
-        <v>0.01252211993567728</v>
+        <v>0.006959188148362702</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.208157200480333</v>
+        <v>2.199753073934397</v>
       </c>
     </row>
     <row r="91">
@@ -5818,16 +5818,16 @@
         <v>2.018599034813246</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O91" t="n">
-        <v>0.08338245006697638</v>
+        <v>0.08039316859758709</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.1019280933992449</v>
+        <v>-0.1067743995758932</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.348943956217701</v>
+        <v>2.324005849450826</v>
       </c>
     </row>
     <row r="92">
@@ -5877,16 +5877,16 @@
         <v>5.133337165547479</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O92" t="n">
-        <v>0.09173370045918514</v>
+        <v>0.08878739030520902</v>
       </c>
       <c r="P92" t="n">
-        <v>-0.1711569973107353</v>
+        <v>-0.1724491661534799</v>
       </c>
       <c r="Q92" t="n">
-        <v>2.407950913552036</v>
+        <v>2.369073204362087</v>
       </c>
     </row>
     <row r="93">
@@ -5936,16 +5936,16 @@
         <v>2.132521964907319</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O93" t="n">
-        <v>0.08633034551869526</v>
+        <v>0.08323232838410327</v>
       </c>
       <c r="P93" t="n">
-        <v>-0.1623582370753286</v>
+        <v>-0.1647431841348483</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.399417886766516</v>
+        <v>2.362622340215035</v>
       </c>
     </row>
     <row r="94">
@@ -5995,16 +5995,16 @@
         <v>2.899952810980204</v>
       </c>
       <c r="N94" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O94" t="n">
-        <v>0.09381286498725405</v>
+        <v>0.09071070121556385</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.2218216493869931</v>
+        <v>-0.2235359306699192</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.461508299008263</v>
+        <v>2.417528852987329</v>
       </c>
     </row>
     <row r="95">
@@ -6054,16 +6054,16 @@
         <v>2.278413693371704</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O95" t="n">
-        <v>0.09684408074559271</v>
+        <v>0.09366926454149443</v>
       </c>
       <c r="P95" t="n">
-        <v>-0.2631188618131884</v>
+        <v>-0.2644117915762617</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.505225260722143</v>
+        <v>2.455147474327778</v>
       </c>
     </row>
     <row r="96">
@@ -6113,16 +6113,16 @@
         <v>4.435763200444183</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O96" t="n">
-        <v>0.2087363980984958</v>
+        <v>0.2091422813180727</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.256730761347102</v>
+        <v>-0.2624798919205449</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.417374085514146</v>
+        <v>2.463490376232162</v>
       </c>
     </row>
     <row r="97">
@@ -6172,16 +6172,16 @@
         <v>2.935572397170822</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O97" t="n">
-        <v>0.1101072688724643</v>
+        <v>0.1074604436190803</v>
       </c>
       <c r="P97" t="n">
-        <v>-0.2589412319841901</v>
+        <v>-0.2593164397592562</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.432141922937196</v>
+        <v>2.4067963559822</v>
       </c>
     </row>
     <row r="98">
@@ -6231,16 +6231,16 @@
         <v>1.5</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.06310021465834577</v>
+        <v>0.06072139769569949</v>
       </c>
       <c r="P98" t="n">
-        <v>0.1962542406122378</v>
+        <v>0.1835206290728436</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.932361210842977</v>
+        <v>1.998906427732495</v>
       </c>
     </row>
     <row r="99">
@@ -6290,16 +6290,16 @@
         <v>6.800503997937875</v>
       </c>
       <c r="N99" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O99" t="n">
-        <v>0.1180358121355602</v>
+        <v>0.1160324296945784</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.1433407367572791</v>
+        <v>-0.1476623673006529</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.340346428568435</v>
+        <v>2.340451846589074</v>
       </c>
     </row>
     <row r="100">
@@ -6349,16 +6349,16 @@
         <v>1.966659307841031</v>
       </c>
       <c r="N100" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O100" t="n">
-        <v>0.09351218407170796</v>
+        <v>0.09138592421789185</v>
       </c>
       <c r="P100" t="n">
-        <v>0.02192006076411457</v>
+        <v>0.01214895222365377</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.131334092033739</v>
+        <v>2.172599908857709</v>
       </c>
     </row>
     <row r="101">
@@ -6408,16 +6408,16 @@
         <v>1.516681928271912</v>
       </c>
       <c r="N101" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O101" t="n">
-        <v>0.09020214715810708</v>
+        <v>0.08789856491140516</v>
       </c>
       <c r="P101" t="n">
-        <v>-0.02363632973897281</v>
+        <v>-0.02888826420983247</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.136416035599192</v>
+        <v>2.16686021214155</v>
       </c>
     </row>
     <row r="102">
@@ -6467,16 +6467,16 @@
         <v>1.807363769913763</v>
       </c>
       <c r="N102" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O102" t="n">
-        <v>0.117791916869998</v>
+        <v>0.1158796875457887</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.1347364046529171</v>
+        <v>-0.1392199576379821</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.273056640234096</v>
+        <v>2.292323816052084</v>
       </c>
     </row>
     <row r="103">
@@ -6526,16 +6526,16 @@
         <v>4.697447298284547</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O103" t="n">
-        <v>0.1043801290378176</v>
+        <v>0.1018770303358035</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.1963882665166367</v>
+        <v>-0.1952324554779678</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.334692759376154</v>
+        <v>2.320047027358585</v>
       </c>
     </row>
     <row r="104">
@@ -6585,16 +6585,16 @@
         <v>2.022150261557744</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O104" t="n">
-        <v>0.09779310730399032</v>
+        <v>0.09493541110350298</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.2041917226659558</v>
+        <v>-0.2063226367832384</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.397487482807713</v>
+        <v>2.373146322804007</v>
       </c>
     </row>
     <row r="105">
@@ -6644,16 +6644,16 @@
         <v>2.80205370157896</v>
       </c>
       <c r="N105" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O105" t="n">
-        <v>0.1045024157267664</v>
+        <v>0.1017983467269051</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.2220409963766593</v>
+        <v>-0.2235344584564673</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.409929567682858</v>
+        <v>2.386042892061179</v>
       </c>
     </row>
     <row r="106">
@@ -6703,16 +6703,16 @@
         <v>2.233479598900402</v>
       </c>
       <c r="N106" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O106" t="n">
-        <v>0.1089582867794803</v>
+        <v>0.1061677069509659</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.3047875853225801</v>
+        <v>-0.3020420697663064</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.447474696092731</v>
+        <v>2.414090000491076</v>
       </c>
     </row>
     <row r="107">
@@ -6762,16 +6762,16 @@
         <v>2.246197971717192</v>
       </c>
       <c r="N107" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798141</v>
       </c>
       <c r="O107" t="n">
-        <v>0.2553227501828521</v>
+        <v>0.2566051324466991</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.4816254786572693</v>
+        <v>-0.4792991350330962</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.449790964942894</v>
+        <v>2.519832213797419</v>
       </c>
     </row>
     <row r="108">
@@ -6821,16 +6821,16 @@
         <v>2.856722983783609</v>
       </c>
       <c r="N108" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O108" t="n">
-        <v>0.1915746486450641</v>
+        <v>0.1909985900442512</v>
       </c>
       <c r="P108" t="n">
-        <v>-0.4432468457664506</v>
+        <v>-0.4359898447420857</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.486585499204117</v>
+        <v>2.490665314411791</v>
       </c>
     </row>
     <row r="109">
@@ -6880,16 +6880,16 @@
         <v>4.876780564743778</v>
       </c>
       <c r="N109" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O109" t="n">
-        <v>0.1879122582539605</v>
+        <v>0.1872920506029925</v>
       </c>
       <c r="P109" t="n">
-        <v>-0.3934590294482013</v>
+        <v>-0.3918223305902286</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.478431790691113</v>
+        <v>2.493788421190004</v>
       </c>
     </row>
     <row r="110">
@@ -6939,16 +6939,16 @@
         <v>5.77635481466117</v>
       </c>
       <c r="N110" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798131</v>
       </c>
       <c r="O110" t="n">
-        <v>0.118349323751225</v>
+        <v>0.1156268373940121</v>
       </c>
       <c r="P110" t="n">
-        <v>-0.3590362066632418</v>
+        <v>-0.358535049338301</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.471393885866031</v>
+        <v>2.452207973660011</v>
       </c>
     </row>
     <row r="111">
@@ -6998,16 +6998,16 @@
         <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798149</v>
       </c>
       <c r="O111" t="n">
-        <v>0.1237200653228851</v>
+        <v>0.1218390180638229</v>
       </c>
       <c r="P111" t="n">
-        <v>-0.2542665188729318</v>
+        <v>-0.2540163614122136</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.153138659070826</v>
+        <v>2.215354838018496</v>
       </c>
     </row>
     <row r="112">
@@ -7057,16 +7057,16 @@
         <v>1.5</v>
       </c>
       <c r="N112" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798143</v>
       </c>
       <c r="O112" t="n">
-        <v>0.1668676878126284</v>
+        <v>0.1658100025179269</v>
       </c>
       <c r="P112" t="n">
-        <v>-0.404636413520865</v>
+        <v>-0.3987009381060491</v>
       </c>
       <c r="Q112" t="n">
-        <v>2.305822943769319</v>
+        <v>2.349772317972019</v>
       </c>
     </row>
     <row r="113">
@@ -7116,16 +7116,16 @@
         <v>3.620158786918764</v>
       </c>
       <c r="N113" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O113" t="n">
-        <v>0.1389935710216435</v>
+        <v>0.1374020464470346</v>
       </c>
       <c r="P113" t="n">
-        <v>-0.2763088430235059</v>
+        <v>-0.2725612554747185</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.315634318098174</v>
+        <v>2.328614221606347</v>
       </c>
     </row>
     <row r="114">
@@ -7175,16 +7175,16 @@
         <v>1.7488349816836</v>
       </c>
       <c r="N114" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O114" t="n">
-        <v>0.1289217003902065</v>
+        <v>0.1268661100960703</v>
       </c>
       <c r="P114" t="n">
-        <v>-0.2869659856950243</v>
+        <v>-0.2855266879189571</v>
       </c>
       <c r="Q114" t="n">
-        <v>2.38407968962968</v>
+        <v>2.381099831639326</v>
       </c>
     </row>
     <row r="115">
@@ -7234,16 +7234,16 @@
         <v>2.583901519233948</v>
       </c>
       <c r="N115" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O115" t="n">
-        <v>0.1180808322768665</v>
+        <v>0.1156592122150551</v>
       </c>
       <c r="P115" t="n">
-        <v>-0.277126666636934</v>
+        <v>-0.2772127189648543</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.410330832632677</v>
+        <v>2.397576574353465</v>
       </c>
     </row>
     <row r="116">
@@ -7293,16 +7293,16 @@
         <v>2.163980622391977</v>
       </c>
       <c r="N116" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O116" t="n">
-        <v>0.1183069589034607</v>
+        <v>0.1157186305732987</v>
       </c>
       <c r="P116" t="n">
-        <v>-0.3313876493742253</v>
+        <v>-0.329076973500094</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.451703067986299</v>
+        <v>2.427646511801339</v>
       </c>
     </row>
     <row r="117">
@@ -7352,16 +7352,16 @@
         <v>1.5</v>
       </c>
       <c r="N117" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O117" t="n">
-        <v>0.2736324264754703</v>
+        <v>0.2752827781809043</v>
       </c>
       <c r="P117" t="n">
-        <v>-0.4014470964055408</v>
+        <v>-0.4071230500413905</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.743298159731092</v>
+        <v>2.7480844389793</v>
       </c>
     </row>
     <row r="118">
@@ -7411,16 +7411,16 @@
         <v>2.839233191721846</v>
       </c>
       <c r="N118" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O118" t="n">
-        <v>0.2138738482973462</v>
+        <v>0.213769885464642</v>
       </c>
       <c r="P118" t="n">
-        <v>-0.4631982177456095</v>
+        <v>-0.4574128558978633</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.618883461517704</v>
+        <v>2.602742745062926</v>
       </c>
     </row>
     <row r="119">
@@ -7470,16 +7470,16 @@
         <v>4.023657069000453</v>
       </c>
       <c r="N119" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798106</v>
       </c>
       <c r="O119" t="n">
-        <v>0.1615322781235022</v>
+        <v>0.1600047914004447</v>
       </c>
       <c r="P119" t="n">
-        <v>-0.2913470293573318</v>
+        <v>-0.298201489278357</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.702897011107143</v>
+        <v>2.649371775213953</v>
       </c>
     </row>
     <row r="120">
@@ -7529,16 +7529,16 @@
         <v>4.938410727829331</v>
       </c>
       <c r="N120" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O120" t="n">
-        <v>0.1127096280841221</v>
+        <v>0.1101239711947954</v>
       </c>
       <c r="P120" t="n">
-        <v>-0.1933914721831011</v>
+        <v>-0.1988993845020041</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.55707110796774</v>
+        <v>2.501930318994308</v>
       </c>
     </row>
     <row r="121">
@@ -7588,16 +7588,16 @@
         <v>5.813745470179411</v>
       </c>
       <c r="N121" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O121" t="n">
-        <v>0.1241517226422686</v>
+        <v>0.1217503660623645</v>
       </c>
       <c r="P121" t="n">
-        <v>-0.2331315950929107</v>
+        <v>-0.2388518819404622</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.603789246309005</v>
+        <v>2.547730500404367</v>
       </c>
     </row>
     <row r="122">
@@ -7647,16 +7647,16 @@
         <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09407472407812331</v>
+        <v>0.09089421623730565</v>
       </c>
       <c r="P122" t="n">
-        <v>-0.2219863700340032</v>
+        <v>-0.2231462327353914</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.546579086638559</v>
+        <v>2.47537270764443</v>
       </c>
     </row>
     <row r="123">
@@ -7706,16 +7706,16 @@
         <v>3.196385968634993</v>
       </c>
       <c r="N123" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09120639436376095</v>
+        <v>0.08871976117111433</v>
       </c>
       <c r="P123" t="n">
-        <v>-0.0595008943710803</v>
+        <v>-0.06092459289675807</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.285349795683372</v>
+        <v>2.264700461232898</v>
       </c>
     </row>
     <row r="124">
@@ -7765,16 +7765,16 @@
         <v>1.677861760191361</v>
       </c>
       <c r="N124" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O124" t="n">
-        <v>0.1160589195059875</v>
+        <v>0.1136921973094639</v>
       </c>
       <c r="P124" t="n">
-        <v>-0.2118477238858817</v>
+        <v>-0.2132043699453052</v>
       </c>
       <c r="Q124" t="n">
-        <v>2.464618087913101</v>
+        <v>2.427928832292815</v>
       </c>
     </row>
     <row r="125">
@@ -7824,16 +7824,16 @@
         <v>2.517249803984338</v>
       </c>
       <c r="N125" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1179471287715043</v>
+        <v>0.1155588339700233</v>
       </c>
       <c r="P125" t="n">
-        <v>-0.2587891087430212</v>
+        <v>-0.2567029822815004</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.458054129679734</v>
+        <v>2.420502483686182</v>
       </c>
     </row>
     <row r="126">
@@ -7883,16 +7883,16 @@
         <v>2.151540561206611</v>
       </c>
       <c r="N126" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1188837513889773</v>
+        <v>0.1162204068041425</v>
       </c>
       <c r="P126" t="n">
-        <v>-0.3381322547599495</v>
+        <v>-0.3344818839360934</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.535921862505709</v>
+        <v>2.483498533195177</v>
       </c>
     </row>
     <row r="127">
@@ -7942,16 +7942,16 @@
         <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1762813054152377</v>
+        <v>0.1758747011521813</v>
       </c>
       <c r="P127" t="n">
-        <v>-0.1504317417053317</v>
+        <v>-0.1596037208026793</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.469118504292894</v>
+        <v>2.477273273978194</v>
       </c>
     </row>
     <row r="128">
@@ -8001,16 +8001,16 @@
         <v>2.801133796137951</v>
       </c>
       <c r="N128" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1702144330041575</v>
+        <v>0.1691161865065099</v>
       </c>
       <c r="P128" t="n">
-        <v>-0.3821426836643221</v>
+        <v>-0.3756455642520099</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.506517382317243</v>
+        <v>2.486284449243623</v>
       </c>
     </row>
     <row r="129">
@@ -8060,16 +8060,16 @@
         <v>3.203523872845948</v>
       </c>
       <c r="N129" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1469587582136295</v>
+        <v>0.1456884975460062</v>
       </c>
       <c r="P129" t="n">
-        <v>-0.1062138671826006</v>
+        <v>-0.117819410583196</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.499390909167088</v>
+        <v>2.484648378143255</v>
       </c>
     </row>
     <row r="130">
@@ -8119,16 +8119,16 @@
         <v>4.117923803685685</v>
       </c>
       <c r="N130" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1100243735250896</v>
+        <v>0.1077846967528344</v>
       </c>
       <c r="P130" t="n">
-        <v>-0.09528126554373184</v>
+        <v>-0.1021183364619569</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.420986251624587</v>
+        <v>2.393360938191025</v>
       </c>
     </row>
     <row r="131">
@@ -8178,16 +8178,16 @@
         <v>4.990740308926869</v>
       </c>
       <c r="N131" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1265426776737027</v>
+        <v>0.1245620737630019</v>
       </c>
       <c r="P131" t="n">
-        <v>-0.1535113944851684</v>
+        <v>-0.1606799843993867</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.491980298029481</v>
+        <v>2.462193709148533</v>
       </c>
     </row>
     <row r="132">
@@ -8237,16 +8237,16 @@
         <v>5.92001221523935</v>
       </c>
       <c r="N132" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1474775109357013</v>
+        <v>0.1459718569113115</v>
       </c>
       <c r="P132" t="n">
-        <v>-0.2457278460740454</v>
+        <v>-0.2462419537860425</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.501503612472391</v>
+        <v>2.472266470403055</v>
       </c>
     </row>
     <row r="133">
@@ -8296,16 +8296,16 @@
         <v>2.765845116703293</v>
       </c>
       <c r="N133" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1380813632496642</v>
+        <v>0.1371249079063184</v>
       </c>
       <c r="P133" t="n">
-        <v>-0.07392013761271413</v>
+        <v>-0.07334911918152336</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.230036167612087</v>
+        <v>2.245043276128141</v>
       </c>
     </row>
     <row r="134">
@@ -8355,16 +8355,16 @@
         <v>1.604559280134035</v>
       </c>
       <c r="N134" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1167276917690409</v>
+        <v>0.1144248738999386</v>
       </c>
       <c r="P134" t="n">
-        <v>-0.1960974473783269</v>
+        <v>-0.1987822362546632</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.450432978798129</v>
+        <v>2.420182293335015</v>
       </c>
     </row>
     <row r="135">
@@ -8414,16 +8414,16 @@
         <v>2.421716693158048</v>
       </c>
       <c r="N135" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O135" t="n">
-        <v>0.100906949631351</v>
+        <v>0.09808447502260458</v>
       </c>
       <c r="P135" t="n">
-        <v>-0.2103312429486192</v>
+        <v>-0.2117918613045709</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.44681586022822</v>
+        <v>2.407999245627078</v>
       </c>
     </row>
     <row r="136">
@@ -8473,16 +8473,16 @@
         <v>2.113254832121663</v>
       </c>
       <c r="N136" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O136" t="n">
-        <v>0.106905619759232</v>
+        <v>0.104078128199107</v>
       </c>
       <c r="P136" t="n">
-        <v>-0.2784338263706596</v>
+        <v>-0.2766835516435028</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.480415699189217</v>
+        <v>2.435076014055079</v>
       </c>
     </row>
     <row r="137">
@@ -8532,16 +8532,16 @@
         <v>2.794096978151844</v>
       </c>
       <c r="N137" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1718323452323806</v>
+        <v>0.1708286477702871</v>
       </c>
       <c r="P137" t="n">
-        <v>-0.3677118608681472</v>
+        <v>-0.3618401196178365</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.498187398414919</v>
+        <v>2.480955659680848</v>
       </c>
     </row>
     <row r="138">
@@ -8591,16 +8591,16 @@
         <v>2.320786974886255</v>
       </c>
       <c r="N138" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O138" t="n">
-        <v>0.07087782439556259</v>
+        <v>0.06770218313771439</v>
       </c>
       <c r="P138" t="n">
-        <v>0.02262561555437706</v>
+        <v>0.01024501552207831</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.395443196310892</v>
+        <v>2.354918269371347</v>
       </c>
     </row>
     <row r="139">
@@ -8650,16 +8650,16 @@
         <v>3.222467925279046</v>
       </c>
       <c r="N139" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06300882484271619</v>
+        <v>0.05984865780239373</v>
       </c>
       <c r="P139" t="n">
-        <v>0.04428858170113695</v>
+        <v>0.0362970166337953</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.281168159896077</v>
+        <v>2.252509350892479</v>
       </c>
     </row>
     <row r="140">
@@ -8709,16 +8709,16 @@
         <v>4.123331018930221</v>
       </c>
       <c r="N140" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O140" t="n">
-        <v>0.08841683810452525</v>
+        <v>0.08530424828776756</v>
       </c>
       <c r="P140" t="n">
-        <v>-0.1304705882807465</v>
+        <v>-0.1373704345096304</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.494208676806252</v>
+        <v>2.439951923033216</v>
       </c>
     </row>
     <row r="141">
@@ -8768,16 +8768,16 @@
         <v>5.067390864960832</v>
       </c>
       <c r="N141" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1395087037483334</v>
+        <v>0.137742383846937</v>
       </c>
       <c r="P141" t="n">
-        <v>-0.2202210736275889</v>
+        <v>-0.2239380396095596</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.533539900547933</v>
+        <v>2.497273512911002</v>
       </c>
     </row>
     <row r="142">
@@ -8827,16 +8827,16 @@
         <v>2.336673469363263</v>
       </c>
       <c r="N142" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1198709333824378</v>
+        <v>0.1177683095410762</v>
       </c>
       <c r="P142" t="n">
-        <v>-0.1684940144491659</v>
+        <v>-0.1708586146256068</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.440267492097551</v>
+        <v>2.408923920132445</v>
       </c>
     </row>
     <row r="143">
@@ -8886,16 +8886,16 @@
         <v>1.568200222748604</v>
       </c>
       <c r="N143" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1158639366138097</v>
+        <v>0.1134640619586677</v>
       </c>
       <c r="P143" t="n">
-        <v>-0.2149144287722845</v>
+        <v>-0.2168300862271119</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.47238705412449</v>
+        <v>2.435675284793355</v>
       </c>
     </row>
     <row r="144">
@@ -8945,16 +8945,16 @@
         <v>2.36477217406919</v>
       </c>
       <c r="N144" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1060167067678828</v>
+        <v>0.103359749285745</v>
       </c>
       <c r="P144" t="n">
-        <v>-0.2086107904800915</v>
+        <v>-0.2100907001723361</v>
       </c>
       <c r="Q144" t="n">
-        <v>2.447567154954438</v>
+        <v>2.41085261662316</v>
       </c>
     </row>
     <row r="145">
@@ -9004,16 +9004,16 @@
         <v>2.113179830839791</v>
       </c>
       <c r="N145" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1061644353968655</v>
+        <v>0.1032476751817076</v>
       </c>
       <c r="P145" t="n">
-        <v>-0.2897582096884069</v>
+        <v>-0.2882451549743141</v>
       </c>
       <c r="Q145" t="n">
-        <v>2.504977700210685</v>
+        <v>2.454603201364624</v>
       </c>
     </row>
     <row r="146">
@@ -9063,16 +9063,16 @@
         <v>2.722337173295156</v>
       </c>
       <c r="N146" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1845322494481767</v>
+        <v>0.1838990854114238</v>
       </c>
       <c r="P146" t="n">
-        <v>-0.409464848758853</v>
+        <v>-0.3981047006331152</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.48981768487095</v>
+        <v>2.469874223164667</v>
       </c>
     </row>
     <row r="147">
@@ -9122,16 +9122,16 @@
         <v>1.500000000000007</v>
       </c>
       <c r="N147" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798094</v>
       </c>
       <c r="O147" t="n">
-        <v>0.08367113911116079</v>
+        <v>0.08148703198747889</v>
       </c>
       <c r="P147" t="n">
-        <v>0.1424606590514159</v>
+        <v>0.1341173929274176</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.255448871268658</v>
+        <v>2.229548101436676</v>
       </c>
     </row>
     <row r="148">
@@ -9181,16 +9181,16 @@
         <v>1.742498074819173</v>
       </c>
       <c r="N148" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798106</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1139839465170614</v>
+        <v>0.1116113173043978</v>
       </c>
       <c r="P148" t="n">
-        <v>-0.2219299769282292</v>
+        <v>-0.218009125663765</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.459165347327615</v>
+        <v>2.406918729008306</v>
       </c>
     </row>
     <row r="149">
@@ -9240,16 +9240,16 @@
         <v>2.282774093942982</v>
       </c>
       <c r="N149" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798098</v>
       </c>
       <c r="O149" t="n">
-        <v>0.08615677520307806</v>
+        <v>0.08363942133144664</v>
       </c>
       <c r="P149" t="n">
-        <v>0.002300915771325074</v>
+        <v>6.515674761123358e-05</v>
       </c>
       <c r="Q149" t="n">
-        <v>2.327704640059868</v>
+        <v>2.284219500369237</v>
       </c>
     </row>
     <row r="150">
@@ -9299,16 +9299,16 @@
         <v>2.528940624387409</v>
       </c>
       <c r="N150" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.050486093557981</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1302384987312684</v>
+        <v>0.128525908710448</v>
       </c>
       <c r="P150" t="n">
-        <v>-0.1661568099841021</v>
+        <v>-0.1640495234859169</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.454690334825012</v>
+        <v>2.408682335991292</v>
       </c>
     </row>
     <row r="151">
@@ -9358,16 +9358,16 @@
         <v>3.070803171318678</v>
       </c>
       <c r="N151" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798102</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1332727193391138</v>
+        <v>0.1312121004543065</v>
       </c>
       <c r="P151" t="n">
-        <v>-0.3006079119454882</v>
+        <v>-0.2935392341982728</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.55493338235853</v>
+        <v>2.486141066468783</v>
       </c>
     </row>
     <row r="152">
@@ -9417,16 +9417,16 @@
         <v>5.079039671634637</v>
       </c>
       <c r="N152" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O152" t="n">
-        <v>0.183543276055897</v>
+        <v>0.183053437052141</v>
       </c>
       <c r="P152" t="n">
-        <v>-0.3309040695530155</v>
+        <v>-0.3218258711974895</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.516031640492842</v>
+        <v>2.482280737147443</v>
       </c>
     </row>
     <row r="153">
@@ -9476,16 +9476,16 @@
         <v>1.52099844095552</v>
       </c>
       <c r="N153" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1685152844616056</v>
+        <v>0.1675177827025288</v>
       </c>
       <c r="P153" t="n">
-        <v>-0.3383864952225655</v>
+        <v>-0.3305618768216224</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.507111090161334</v>
+        <v>2.474027542408785</v>
       </c>
     </row>
     <row r="154">
@@ -9535,16 +9535,16 @@
         <v>2.395844558513564</v>
       </c>
       <c r="N154" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1118644308426679</v>
+        <v>0.1093933012161616</v>
       </c>
       <c r="P154" t="n">
-        <v>-0.2372532687611171</v>
+        <v>-0.2337418551498703</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.439576445217682</v>
+        <v>2.396099411274079</v>
       </c>
     </row>
     <row r="155">
@@ -9594,16 +9594,16 @@
         <v>2.081799930256534</v>
       </c>
       <c r="N155" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1131298311845765</v>
+        <v>0.1105682043104034</v>
       </c>
       <c r="P155" t="n">
-        <v>-0.2736016544932637</v>
+        <v>-0.2693284556007245</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.467753362964374</v>
+        <v>2.419975745355373</v>
       </c>
     </row>
     <row r="156">
@@ -9653,16 +9653,16 @@
         <v>2.70624499875677</v>
       </c>
       <c r="N156" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1828972641217795</v>
+        <v>0.1824227824307515</v>
       </c>
       <c r="P156" t="n">
-        <v>-0.3478319940251579</v>
+        <v>-0.3402696751362341</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.415905583651627</v>
+        <v>2.419821288484625</v>
       </c>
     </row>
     <row r="157">
@@ -9712,16 +9712,16 @@
         <v>1.379946843174455</v>
       </c>
       <c r="N157" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1328058340291337</v>
+        <v>0.1312017175692255</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.1598811412616088</v>
+        <v>-0.1624866985906584</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.379861700031698</v>
+        <v>2.372459629181298</v>
       </c>
     </row>
     <row r="158">
@@ -9771,16 +9771,16 @@
         <v>1.353994713668191</v>
       </c>
       <c r="N158" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1540490690945622</v>
+        <v>0.1530437545246701</v>
       </c>
       <c r="P158" t="n">
-        <v>-0.1999520340077786</v>
+        <v>-0.1997230665340772</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.375341726558084</v>
+        <v>2.37703058488148</v>
       </c>
     </row>
     <row r="159">
@@ -9830,16 +9830,16 @@
         <v>1</v>
       </c>
       <c r="N159" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O159" t="n">
-        <v>0.05023389134204717</v>
+        <v>0.04650525414673809</v>
       </c>
       <c r="P159" t="n">
-        <v>0.0131554391143571</v>
+        <v>0.004102613892098442</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.328409535669502</v>
+        <v>2.288015702988735</v>
       </c>
     </row>
     <row r="160">
@@ -9889,16 +9889,16 @@
         <v>1.5</v>
       </c>
       <c r="N160" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07422616596783613</v>
+        <v>0.07144510543548924</v>
       </c>
       <c r="P160" t="n">
-        <v>0.01847334096128248</v>
+        <v>0.01314509707466467</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.226380668636443</v>
+        <v>2.215071339993164</v>
       </c>
     </row>
     <row r="161">
@@ -9948,16 +9948,16 @@
         <v>2.328406320178658</v>
       </c>
       <c r="N161" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1603221748239706</v>
+        <v>0.1596314425619902</v>
       </c>
       <c r="P161" t="n">
-        <v>-0.166518528189355</v>
+        <v>-0.1669009543451619</v>
       </c>
       <c r="Q161" t="n">
-        <v>2.353901582077541</v>
+        <v>2.361613779798055</v>
       </c>
     </row>
     <row r="162">
@@ -10007,16 +10007,16 @@
         <v>1.541828737808534</v>
       </c>
       <c r="N162" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1728989409412067</v>
+        <v>0.1725513094350495</v>
       </c>
       <c r="P162" t="n">
-        <v>-0.188896784781575</v>
+        <v>-0.1891091774594685</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.343532765050516</v>
+        <v>2.363808463506125</v>
       </c>
     </row>
     <row r="163">
@@ -10066,16 +10066,16 @@
         <v>2.168847670449862</v>
       </c>
       <c r="N163" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1228940509725429</v>
+        <v>0.121180398311689</v>
       </c>
       <c r="P163" t="n">
-        <v>-0.1368897223707815</v>
+        <v>-0.1373707506448969</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.290969602338708</v>
+        <v>2.29423753970563</v>
       </c>
     </row>
     <row r="164">
@@ -10125,16 +10125,16 @@
         <v>2.068287258175172</v>
       </c>
       <c r="N164" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1225363335558433</v>
+        <v>0.1204552423199368</v>
       </c>
       <c r="P164" t="n">
-        <v>-0.2615020392143049</v>
+        <v>-0.2556012888155863</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.359933417224893</v>
+        <v>2.341651027443403</v>
       </c>
     </row>
     <row r="165">
@@ -10184,16 +10184,16 @@
         <v>2.716096556723631</v>
       </c>
       <c r="N165" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1790308740675972</v>
+        <v>0.1787231014572058</v>
       </c>
       <c r="P165" t="n">
-        <v>-0.2482825497596702</v>
+        <v>-0.246583712249668</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.34597691564687</v>
+        <v>2.372072589837412</v>
       </c>
     </row>
     <row r="166">
@@ -10243,16 +10243,16 @@
         <v>1.541605770854398</v>
       </c>
       <c r="N166" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1273245081948117</v>
+        <v>0.1257896215286264</v>
       </c>
       <c r="P166" t="n">
-        <v>-0.1063972714152316</v>
+        <v>-0.1106911155113956</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.285136164804145</v>
+        <v>2.300146960380889</v>
       </c>
     </row>
     <row r="167">
@@ -10302,16 +10302,16 @@
         <v>1.660034618692589</v>
       </c>
       <c r="N167" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1211103461854318</v>
+        <v>0.119201726303462</v>
       </c>
       <c r="P167" t="n">
-        <v>-0.1385256718929643</v>
+        <v>-0.1435169703393502</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.34605531067128</v>
+        <v>2.347440880487332</v>
       </c>
     </row>
     <row r="168">
@@ -10361,16 +10361,16 @@
         <v>1.939456807323593</v>
       </c>
       <c r="N168" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O168" t="n">
-        <v>0.138556467982792</v>
+        <v>0.1372350960836667</v>
       </c>
       <c r="P168" t="n">
-        <v>-0.1624712551212542</v>
+        <v>-0.16346090737846</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.305353732881359</v>
+        <v>2.318134668862611</v>
       </c>
     </row>
     <row r="169">
@@ -10420,16 +10420,16 @@
         <v>1</v>
       </c>
       <c r="N169" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08030472144506734</v>
+        <v>0.07677607341432455</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.1854590147530907</v>
+        <v>-0.1924591330782328</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.485258070842999</v>
+        <v>2.439193460746745</v>
       </c>
     </row>
     <row r="170">
@@ -10479,16 +10479,16 @@
         <v>1.5</v>
       </c>
       <c r="N170" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1219238793700808</v>
+        <v>0.1200295059216205</v>
       </c>
       <c r="P170" t="n">
-        <v>-0.1601937633845521</v>
+        <v>-0.1625082810674085</v>
       </c>
       <c r="Q170" t="n">
-        <v>2.335280110246628</v>
+        <v>2.3348832713898</v>
       </c>
     </row>
     <row r="171">
@@ -10538,16 +10538,16 @@
         <v>1.698882145287795</v>
       </c>
       <c r="N171" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1045512775839246</v>
+        <v>0.1025613421807465</v>
       </c>
       <c r="P171" t="n">
-        <v>-0.03644597863660323</v>
+        <v>-0.04230739462183232</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.217626554702828</v>
+        <v>2.235088823469316</v>
       </c>
     </row>
     <row r="172">
@@ -10597,16 +10597,16 @@
         <v>2.105377325634942</v>
       </c>
       <c r="N172" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0964542266346677</v>
+        <v>0.09421642968095192</v>
       </c>
       <c r="P172" t="n">
-        <v>-0.03242655735994487</v>
+        <v>-0.03859880857311836</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.217112250692954</v>
+        <v>2.231064427483272</v>
       </c>
     </row>
     <row r="173">
@@ -10656,16 +10656,16 @@
         <v>2.08009459663473</v>
       </c>
       <c r="N173" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O173" t="n">
-        <v>0.09869428131724606</v>
+        <v>0.09611626474219893</v>
       </c>
       <c r="P173" t="n">
-        <v>-0.1560435678576749</v>
+        <v>-0.1574066521919901</v>
       </c>
       <c r="Q173" t="n">
-        <v>2.315396516433088</v>
+        <v>2.305453914868047</v>
       </c>
     </row>
     <row r="174">
@@ -10715,16 +10715,16 @@
         <v>2.729621715297354</v>
       </c>
       <c r="N174" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1547001273237985</v>
+        <v>0.1539397974615621</v>
       </c>
       <c r="P174" t="n">
-        <v>-0.1764461845886542</v>
+        <v>-0.1754384721723298</v>
       </c>
       <c r="Q174" t="n">
-        <v>2.249887822664689</v>
+        <v>2.282947832702477</v>
       </c>
     </row>
     <row r="175">
@@ -10774,16 +10774,16 @@
         <v>2.324048894973711</v>
       </c>
       <c r="N175" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08402200227434611</v>
+        <v>0.08193454677639934</v>
       </c>
       <c r="P175" t="n">
-        <v>0.08044821769084834</v>
+        <v>0.07381041308078663</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.033319250363257</v>
+        <v>2.078832461910748</v>
       </c>
     </row>
     <row r="176">
@@ -10833,16 +10833,16 @@
         <v>2.657791283142489</v>
       </c>
       <c r="N176" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07839535439481474</v>
+        <v>0.07586117369871863</v>
       </c>
       <c r="P176" t="n">
-        <v>0.0215435478195217</v>
+        <v>0.01538064522268744</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.119664547155931</v>
+        <v>2.144745371489393</v>
       </c>
     </row>
     <row r="177">
@@ -10892,16 +10892,16 @@
         <v>3.218798549976413</v>
       </c>
       <c r="N177" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1021792910966957</v>
+        <v>0.100309421137299</v>
       </c>
       <c r="P177" t="n">
-        <v>-0.01325388859401558</v>
+        <v>-0.01762146943310049</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.127915887637835</v>
+        <v>2.162156316203928</v>
       </c>
     </row>
     <row r="178">
@@ -10951,16 +10951,16 @@
         <v>2.47327478128775</v>
       </c>
       <c r="N178" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O178" t="n">
-        <v>0.133558590753649</v>
+        <v>0.1324936438077021</v>
       </c>
       <c r="P178" t="n">
-        <v>-0.07258417436248657</v>
+        <v>-0.07485214437615366</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.16225085658732</v>
+        <v>2.204704013874128</v>
       </c>
     </row>
     <row r="179">
@@ -11010,16 +11010,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N179" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1170984728218682</v>
+        <v>0.1151219636688127</v>
       </c>
       <c r="P179" t="n">
-        <v>-0.1930698163572935</v>
+        <v>-0.1905270107798424</v>
       </c>
       <c r="Q179" t="n">
-        <v>2.251816768921535</v>
+        <v>2.263124932176564</v>
       </c>
     </row>
     <row r="180">
@@ -11069,16 +11069,16 @@
         <v>2.021842545957972</v>
       </c>
       <c r="N180" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1299230954929121</v>
+        <v>0.1288187145729277</v>
       </c>
       <c r="P180" t="n">
-        <v>-0.02270098912478469</v>
+        <v>-0.02951888971819154</v>
       </c>
       <c r="Q180" t="n">
-        <v>2.166226571478852</v>
+        <v>2.212697022199452</v>
       </c>
     </row>
     <row r="181">
@@ -11128,16 +11128,16 @@
         <v>2.041336094825189</v>
       </c>
       <c r="N181" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O181" t="n">
-        <v>0.105630090761079</v>
+        <v>0.1036284699601058</v>
       </c>
       <c r="P181" t="n">
-        <v>-0.06991700503818601</v>
+        <v>-0.07348153045714044</v>
       </c>
       <c r="Q181" t="n">
-        <v>2.199803232234043</v>
+        <v>2.220992350412175</v>
       </c>
     </row>
     <row r="182">
@@ -11187,16 +11187,16 @@
         <v>2.093466386518675</v>
       </c>
       <c r="N182" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09373676621489838</v>
+        <v>0.09131926372525626</v>
       </c>
       <c r="P182" t="n">
-        <v>-0.09269386681535267</v>
+        <v>-0.0940200622150181</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.205468528174277</v>
+        <v>2.215271117855665</v>
       </c>
     </row>
     <row r="183">
@@ -11246,16 +11246,16 @@
         <v>2.767138876111711</v>
       </c>
       <c r="N183" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1295023434733759</v>
+        <v>0.1282872235263959</v>
       </c>
       <c r="P183" t="n">
-        <v>-0.0831334616513608</v>
+        <v>-0.08473837839920258</v>
       </c>
       <c r="Q183" t="n">
-        <v>2.162591758274077</v>
+        <v>2.202444223834879</v>
       </c>
     </row>
     <row r="184">
@@ -11305,16 +11305,16 @@
         <v>1.231802648890853</v>
       </c>
       <c r="N184" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O184" t="n">
-        <v>0.07791046255940265</v>
+        <v>0.07597504399749434</v>
       </c>
       <c r="P184" t="n">
-        <v>0.1644858824235001</v>
+        <v>0.1555735529018606</v>
       </c>
       <c r="Q184" t="n">
-        <v>1.921913070507693</v>
+        <v>1.991387122376122</v>
       </c>
     </row>
     <row r="185">
@@ -11364,16 +11364,16 @@
         <v>1.232524135637256</v>
       </c>
       <c r="N185" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1188980997753311</v>
+        <v>0.1176707083334029</v>
       </c>
       <c r="P185" t="n">
-        <v>0.01006085294391998</v>
+        <v>0.004571228339531969</v>
       </c>
       <c r="Q185" t="n">
-        <v>2.073274213189045</v>
+        <v>2.132131360361652</v>
       </c>
     </row>
     <row r="186">
@@ -11423,16 +11423,16 @@
         <v>1.443961876920169</v>
       </c>
       <c r="N186" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1191572925410447</v>
+        <v>0.1178942688867737</v>
       </c>
       <c r="P186" t="n">
-        <v>-0.002658855775232394</v>
+        <v>-0.007518207374922578</v>
       </c>
       <c r="Q186" t="n">
-        <v>2.08669871229056</v>
+        <v>2.141660519836735</v>
       </c>
     </row>
     <row r="187">
@@ -11482,16 +11482,16 @@
         <v>1.9075071722092</v>
       </c>
       <c r="N187" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O187" t="n">
-        <v>0.159662089602385</v>
+        <v>0.159376328066389</v>
       </c>
       <c r="P187" t="n">
-        <v>-0.05606691877999884</v>
+        <v>-0.06320856685979838</v>
       </c>
       <c r="Q187" t="n">
-        <v>2.178318282476464</v>
+        <v>2.242695286445416</v>
       </c>
     </row>
     <row r="188">
@@ -11541,16 +11541,16 @@
         <v>1.638347571836287</v>
       </c>
       <c r="N188" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1117487905087956</v>
+        <v>0.1104092479658045</v>
       </c>
       <c r="P188" t="n">
-        <v>0.07171401055859553</v>
+        <v>0.06156775305740518</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.073689516145018</v>
+        <v>2.134265429981666</v>
       </c>
     </row>
     <row r="189">
@@ -11600,16 +11600,16 @@
         <v>2.004673668276303</v>
       </c>
       <c r="N189" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1013709587820912</v>
+        <v>0.09943585834479503</v>
       </c>
       <c r="P189" t="n">
-        <v>-0.0004711531461769891</v>
+        <v>-0.008063073790160066</v>
       </c>
       <c r="Q189" t="n">
-        <v>2.152316594943786</v>
+        <v>2.187597329406034</v>
       </c>
     </row>
     <row r="190">
@@ -11659,16 +11659,16 @@
         <v>2.136546488859221</v>
       </c>
       <c r="N190" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08452131555268666</v>
+        <v>0.08203252016155446</v>
       </c>
       <c r="P190" t="n">
-        <v>-0.02709521083355515</v>
+        <v>-0.03122933115790297</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.148119836499564</v>
+        <v>2.169018493569082</v>
       </c>
     </row>
     <row r="191">
@@ -11718,16 +11718,16 @@
         <v>2.282637360416062</v>
       </c>
       <c r="N191" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1631584671930113</v>
+        <v>0.1624797694263532</v>
       </c>
       <c r="P191" t="n">
-        <v>-0.2404606508442872</v>
+        <v>-0.2358424554676518</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.29239054299499</v>
+        <v>2.315448881956212</v>
       </c>
     </row>
     <row r="192">
@@ -11777,16 +11777,16 @@
         <v>2.671675381450449</v>
       </c>
       <c r="N192" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1415599741504134</v>
+        <v>0.1403393965260496</v>
       </c>
       <c r="P192" t="n">
-        <v>-0.1987339281802654</v>
+        <v>-0.197261605949542</v>
       </c>
       <c r="Q192" t="n">
-        <v>2.235951954835367</v>
+        <v>2.268797128744412</v>
       </c>
     </row>
     <row r="193">
@@ -11836,16 +11836,16 @@
         <v>1.5</v>
       </c>
       <c r="N193" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579814</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1308016117798778</v>
+        <v>0.1300615471648484</v>
       </c>
       <c r="P193" t="n">
-        <v>-0.05596048679375516</v>
+        <v>-0.05337587983220295</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.908301953879066</v>
+        <v>2.006334446607264</v>
       </c>
     </row>
     <row r="194">
@@ -11895,16 +11895,16 @@
         <v>2.074278890340928</v>
       </c>
       <c r="N194" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798132</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1019695100011864</v>
+        <v>0.1000928835195066</v>
       </c>
       <c r="P194" t="n">
-        <v>-0.06138904145869821</v>
+        <v>-0.06154410287356836</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.056477845277665</v>
+        <v>2.105859674059561</v>
       </c>
     </row>
     <row r="195">
@@ -11954,16 +11954,16 @@
         <v>2.078393494403136</v>
       </c>
       <c r="N195" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798138</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1613442068636297</v>
+        <v>0.1613083085305837</v>
       </c>
       <c r="P195" t="n">
-        <v>-0.1048634859566682</v>
+        <v>-0.1030727273657696</v>
       </c>
       <c r="Q195" t="n">
-        <v>1.996340987800384</v>
+        <v>2.094101011420364</v>
       </c>
     </row>
     <row r="196">
@@ -12013,16 +12013,16 @@
         <v>2.004832658971965</v>
       </c>
       <c r="N196" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798135</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1226825110053713</v>
+        <v>0.121352580153455</v>
       </c>
       <c r="P196" t="n">
-        <v>-0.09796257523711167</v>
+        <v>-0.09785091726052382</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.056432913445455</v>
+        <v>2.121396329901219</v>
       </c>
     </row>
     <row r="197">
@@ -12072,16 +12072,16 @@
         <v>2.1802809867535</v>
       </c>
       <c r="N197" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798135</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1315911597073487</v>
+        <v>0.1306452133728313</v>
       </c>
       <c r="P197" t="n">
-        <v>-0.1003087357684061</v>
+        <v>-0.09676875505293991</v>
       </c>
       <c r="Q197" t="n">
-        <v>2.007219058996809</v>
+        <v>2.080186849982246</v>
       </c>
     </row>
     <row r="198">
@@ -12131,16 +12131,16 @@
         <v>1.572101198006467</v>
       </c>
       <c r="N198" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798134</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1178240509573798</v>
+        <v>0.1165590868128344</v>
       </c>
       <c r="P198" t="n">
-        <v>-0.02937699626893944</v>
+        <v>-0.03168337085189186</v>
       </c>
       <c r="Q198" t="n">
-        <v>2.014074557708115</v>
+        <v>2.085994430506374</v>
       </c>
     </row>
     <row r="199">
@@ -12190,16 +12190,16 @@
         <v>1.932643208726966</v>
       </c>
       <c r="N199" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O199" t="n">
-        <v>0.08441076819479776</v>
+        <v>0.08203867255672194</v>
       </c>
       <c r="P199" t="n">
-        <v>-0.01005740086378486</v>
+        <v>-0.01471027794758746</v>
       </c>
       <c r="Q199" t="n">
-        <v>2.079717330693637</v>
+        <v>2.119970909859406</v>
       </c>
     </row>
     <row r="200">
@@ -12249,16 +12249,16 @@
         <v>2.045464479339962</v>
       </c>
       <c r="N200" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798129</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1036280048536724</v>
+        <v>0.1013527546533905</v>
       </c>
       <c r="P200" t="n">
-        <v>-0.165100050059805</v>
+        <v>-0.1635350653264119</v>
       </c>
       <c r="Q200" t="n">
-        <v>2.200918577371656</v>
+        <v>2.219383770981623</v>
       </c>
     </row>
     <row r="201">
@@ -12308,16 +12308,16 @@
         <v>2.232560601757156</v>
       </c>
       <c r="N201" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1844469587778371</v>
+        <v>0.1841358514621591</v>
       </c>
       <c r="P201" t="n">
-        <v>-0.3511425724535199</v>
+        <v>-0.3417329989400643</v>
       </c>
       <c r="Q201" t="n">
-        <v>2.330802300174503</v>
+        <v>2.355319768327344</v>
       </c>
     </row>
     <row r="202">
@@ -12367,16 +12367,16 @@
         <v>2.537203454282187</v>
       </c>
       <c r="N202" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1116062812327911</v>
+        <v>0.1098342668001307</v>
       </c>
       <c r="P202" t="n">
-        <v>-0.07213928739497952</v>
+        <v>-0.07372039487170781</v>
       </c>
       <c r="Q202" t="n">
-        <v>2.185544263841864</v>
+        <v>2.207657486218461</v>
       </c>
     </row>
     <row r="203">
@@ -12426,16 +12426,16 @@
         <v>2.029293115937545</v>
       </c>
       <c r="N203" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O203" t="n">
-        <v>0.06811606000498112</v>
+        <v>0.06541224139703547</v>
       </c>
       <c r="P203" t="n">
-        <v>0.06176800895453297</v>
+        <v>0.05601520843457534</v>
       </c>
       <c r="Q203" t="n">
-        <v>2.096870750634128</v>
+        <v>2.115525848125599</v>
       </c>
     </row>
     <row r="204">
@@ -12485,16 +12485,16 @@
         <v>1.947538885298536</v>
       </c>
       <c r="N204" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O204" t="n">
-        <v>0.06342034892898388</v>
+        <v>0.06070488993992564</v>
       </c>
       <c r="P204" t="n">
-        <v>0.09364633089793653</v>
+        <v>0.08754106897455831</v>
       </c>
       <c r="Q204" t="n">
-        <v>2.056741517630365</v>
+        <v>2.08093426417746</v>
       </c>
     </row>
     <row r="205">
@@ -12544,16 +12544,16 @@
         <v>1</v>
       </c>
       <c r="N205" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O205" t="n">
-        <v>0.05991446833048202</v>
+        <v>0.05695049299168965</v>
       </c>
       <c r="P205" t="n">
-        <v>0.05242361799365478</v>
+        <v>0.04840771326158476</v>
       </c>
       <c r="Q205" t="n">
-        <v>2.097123900363755</v>
+        <v>2.107302057507667</v>
       </c>
     </row>
     <row r="206">
@@ -12603,16 +12603,16 @@
         <v>1.5</v>
       </c>
       <c r="N206" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O206" t="n">
-        <v>0.08171766670795791</v>
+        <v>0.07961629447997855</v>
       </c>
       <c r="P206" t="n">
-        <v>0.0774878734149308</v>
+        <v>0.07452945814950633</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.025176368350348</v>
+        <v>2.060034850646433</v>
       </c>
     </row>
     <row r="207">
@@ -12662,16 +12662,16 @@
         <v>1.242017725361661</v>
       </c>
       <c r="N207" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O207" t="n">
-        <v>0.08302738351513403</v>
+        <v>0.08119037662200271</v>
       </c>
       <c r="P207" t="n">
-        <v>0.1539074982482716</v>
+        <v>0.1469044996778937</v>
       </c>
       <c r="Q207" t="n">
-        <v>1.976897834681248</v>
+        <v>2.027754153432473</v>
       </c>
     </row>
     <row r="208">
@@ -12721,16 +12721,16 @@
         <v>2.441089153107288</v>
       </c>
       <c r="N208" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O208" t="n">
-        <v>0.07864752243854278</v>
+        <v>0.07632360052808412</v>
       </c>
       <c r="P208" t="n">
-        <v>0.06594602665899729</v>
+        <v>0.06068130287888969</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.072995794723641</v>
+        <v>2.101716202195794</v>
       </c>
     </row>
     <row r="209">
@@ -12780,16 +12780,16 @@
         <v>2.056278732576485</v>
       </c>
       <c r="N209" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O209" t="n">
-        <v>0.08204509111385869</v>
+        <v>0.0795889502806324</v>
       </c>
       <c r="P209" t="n">
-        <v>-0.003402275033541749</v>
+        <v>-0.006454821421723808</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.12922162298204</v>
+        <v>2.146921899447674</v>
       </c>
     </row>
     <row r="210">
@@ -12839,16 +12839,16 @@
         <v>2.061438656335365</v>
       </c>
       <c r="N210" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O210" t="n">
-        <v>0.0849767050432416</v>
+        <v>0.08219970028333813</v>
       </c>
       <c r="P210" t="n">
-        <v>-0.08727643102270169</v>
+        <v>-0.09025992270570074</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.270738393570967</v>
+        <v>2.261292069631391</v>
       </c>
     </row>
     <row r="211">
@@ -12898,16 +12898,16 @@
         <v>2.549338570627156</v>
       </c>
       <c r="N211" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1072041770566169</v>
+        <v>0.105474143433195</v>
       </c>
       <c r="P211" t="n">
-        <v>0.005458835007905366</v>
+        <v>-0.0004429249903238064</v>
       </c>
       <c r="Q211" t="n">
-        <v>2.174129442018271</v>
+        <v>2.199071049796884</v>
       </c>
     </row>
     <row r="212">
@@ -12957,16 +12957,16 @@
         <v>2.234107186744447</v>
       </c>
       <c r="N212" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O212" t="n">
-        <v>0.06786381631647992</v>
+        <v>0.06534876901744353</v>
       </c>
       <c r="P212" t="n">
-        <v>0.1304234434416332</v>
+        <v>0.1228818051669472</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.083144633452394</v>
+        <v>2.100329912321873</v>
       </c>
     </row>
     <row r="213">
@@ -13016,16 +13016,16 @@
         <v>2.120644360699723</v>
       </c>
       <c r="N213" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O213" t="n">
-        <v>0.05002498740852534</v>
+        <v>0.0471778921717862</v>
       </c>
       <c r="P213" t="n">
-        <v>0.1656082831405571</v>
+        <v>0.1598825205344782</v>
       </c>
       <c r="Q213" t="n">
-        <v>1.998270003227986</v>
+        <v>2.019963446121338</v>
       </c>
     </row>
     <row r="214">
@@ -13075,16 +13075,16 @@
         <v>2.164019683827229</v>
       </c>
       <c r="N214" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1194897661861797</v>
+        <v>0.1180147751714926</v>
       </c>
       <c r="P214" t="n">
-        <v>-0.0004389134857267496</v>
+        <v>-0.008660569942062143</v>
       </c>
       <c r="Q214" t="n">
-        <v>2.243890068524409</v>
+        <v>2.262878669332503</v>
       </c>
     </row>
     <row r="215">
@@ -13134,16 +13134,16 @@
         <v>1</v>
       </c>
       <c r="N215" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O215" t="n">
-        <v>0.07285028734311907</v>
+        <v>0.07039369283587549</v>
       </c>
       <c r="P215" t="n">
-        <v>0.09125601205173656</v>
+        <v>0.08770116933997081</v>
       </c>
       <c r="Q215" t="n">
-        <v>2.121651394364312</v>
+        <v>2.12286238408165</v>
       </c>
     </row>
     <row r="216">
@@ -13193,16 +13193,16 @@
         <v>1.5</v>
       </c>
       <c r="N216" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O216" t="n">
-        <v>0.05712720874859911</v>
+        <v>0.05455188977098323</v>
       </c>
       <c r="P216" t="n">
-        <v>0.2233900658940477</v>
+        <v>0.2124002947658848</v>
       </c>
       <c r="Q216" t="n">
-        <v>2.038704975712236</v>
+        <v>2.059933032747742</v>
       </c>
     </row>
     <row r="217">
@@ -13252,16 +13252,16 @@
         <v>2.636309848641115</v>
       </c>
       <c r="N217" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O217" t="n">
-        <v>0.05364412186721292</v>
+        <v>0.05095668084105884</v>
       </c>
       <c r="P217" t="n">
-        <v>0.2073550522909615</v>
+        <v>0.1970852297526927</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.006963893559381</v>
+        <v>2.03622506919429</v>
       </c>
     </row>
     <row r="218">
@@ -13311,16 +13311,16 @@
         <v>2.161267405311866</v>
       </c>
       <c r="N218" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O218" t="n">
-        <v>0.05844528498766202</v>
+        <v>0.0553566401069128</v>
       </c>
       <c r="P218" t="n">
-        <v>0.08065402923908974</v>
+        <v>0.07105447763271212</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.164601897118813</v>
+        <v>2.167961658902452</v>
       </c>
     </row>
     <row r="219">
@@ -13370,16 +13370,16 @@
         <v>2.004878396784024</v>
       </c>
       <c r="N219" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O219" t="n">
-        <v>0.0825108715141353</v>
+        <v>0.07964540056047362</v>
       </c>
       <c r="P219" t="n">
-        <v>-0.06764979106794722</v>
+        <v>-0.07274477816119504</v>
       </c>
       <c r="Q219" t="n">
-        <v>2.303747521773895</v>
+        <v>2.287022116261732</v>
       </c>
     </row>
     <row r="220">
@@ -13429,16 +13429,16 @@
         <v>2.49331058952106</v>
       </c>
       <c r="N220" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O220" t="n">
-        <v>0.09729827721229597</v>
+        <v>0.09539111787338679</v>
       </c>
       <c r="P220" t="n">
-        <v>0.06236922629008251</v>
+        <v>0.05368983338319487</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.168669033820074</v>
+        <v>2.19015626177301</v>
       </c>
     </row>
     <row r="221">
@@ -13488,16 +13488,16 @@
         <v>1.785886240122152</v>
       </c>
       <c r="N221" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798106</v>
       </c>
       <c r="O221" t="n">
-        <v>0.02756588817860245</v>
+        <v>0.02368382684488059</v>
       </c>
       <c r="P221" t="n">
-        <v>0.1908216201662447</v>
+        <v>0.1750262629566996</v>
       </c>
       <c r="Q221" t="n">
-        <v>2.214728483379585</v>
+        <v>2.190127178957491</v>
       </c>
     </row>
     <row r="222">
@@ -13547,16 +13547,16 @@
         <v>1.423481042587269</v>
       </c>
       <c r="N222" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O222" t="n">
-        <v>0.0438847027815938</v>
+        <v>0.04073284672589006</v>
       </c>
       <c r="P222" t="n">
-        <v>0.1939189418023551</v>
+        <v>0.183290075506996</v>
       </c>
       <c r="Q222" t="n">
-        <v>2.104866094378082</v>
+        <v>2.103364269829989</v>
       </c>
     </row>
     <row r="223">
@@ -13606,16 +13606,16 @@
         <v>1.846502610017342</v>
       </c>
       <c r="N223" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O223" t="n">
-        <v>0.05960453953261682</v>
+        <v>0.05656506380016096</v>
       </c>
       <c r="P223" t="n">
-        <v>0.1090533971047191</v>
+        <v>0.09824766061588076</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.21389687345994</v>
+        <v>2.202371206232737</v>
       </c>
     </row>
     <row r="224">
@@ -13665,16 +13665,16 @@
         <v>2.074782591321592</v>
       </c>
       <c r="N224" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1087821175056636</v>
+        <v>0.1071076418229564</v>
       </c>
       <c r="P224" t="n">
-        <v>0.06534940929707614</v>
+        <v>0.05371923274381483</v>
       </c>
       <c r="Q224" t="n">
-        <v>2.251062492516681</v>
+        <v>2.263053470799077</v>
       </c>
     </row>
     <row r="225">
@@ -13724,16 +13724,16 @@
         <v>1</v>
       </c>
       <c r="N225" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798098</v>
       </c>
       <c r="O225" t="n">
-        <v>0.02502633971308381</v>
+        <v>0.02129511113674511</v>
       </c>
       <c r="P225" t="n">
-        <v>0.2473238397494814</v>
+        <v>0.233054120419313</v>
       </c>
       <c r="Q225" t="n">
-        <v>2.184442994513651</v>
+        <v>2.153024627674159</v>
       </c>
     </row>
     <row r="226">
@@ -13783,16 +13783,16 @@
         <v>2.336199992109024</v>
       </c>
       <c r="N226" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O226" t="n">
-        <v>0.05248666838153385</v>
+        <v>0.04974495318568408</v>
       </c>
       <c r="P226" t="n">
-        <v>0.2214594302712105</v>
+        <v>0.2101541088327928</v>
       </c>
       <c r="Q226" t="n">
-        <v>2.046644662942503</v>
+        <v>2.064566239819265</v>
       </c>
     </row>
     <row r="227">
@@ -13842,16 +13842,16 @@
         <v>2.288428103570097</v>
       </c>
       <c r="N227" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O227" t="n">
-        <v>0.06824845187849041</v>
+        <v>0.06557967911921131</v>
       </c>
       <c r="P227" t="n">
-        <v>0.1063015885931496</v>
+        <v>0.09721345340594069</v>
       </c>
       <c r="Q227" t="n">
-        <v>2.143475865458985</v>
+        <v>2.152035024657199</v>
       </c>
     </row>
     <row r="228">
@@ -13901,16 +13901,16 @@
         <v>1.940217643963906</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O228" t="n">
-        <v>0.07369953143943506</v>
+        <v>0.07077211043922828</v>
       </c>
       <c r="P228" t="n">
-        <v>-0.005376273038007362</v>
+        <v>-0.01177357393831913</v>
       </c>
       <c r="Q228" t="n">
-        <v>2.261917156281612</v>
+        <v>2.247301904066695</v>
       </c>
     </row>
     <row r="229">
@@ -13960,16 +13960,16 @@
         <v>2.387835162127833</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1010451637215829</v>
+        <v>0.09905684252796115</v>
       </c>
       <c r="P229" t="n">
-        <v>0.02116724222027014</v>
+        <v>0.01244724609721669</v>
       </c>
       <c r="Q229" t="n">
-        <v>2.233900471663684</v>
+        <v>2.244741222614625</v>
       </c>
     </row>
     <row r="230">
@@ -14019,16 +14019,16 @@
         <v>1.470955607823266</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798103</v>
       </c>
       <c r="O230" t="n">
-        <v>0.04169151265874203</v>
+        <v>0.0379649333879743</v>
       </c>
       <c r="P230" t="n">
-        <v>0.1062480817691125</v>
+        <v>0.09421467706835633</v>
       </c>
       <c r="Q230" t="n">
-        <v>2.297263119812671</v>
+        <v>2.256418790519476</v>
       </c>
     </row>
     <row r="231">
@@ -14078,16 +14078,16 @@
         <v>1.433028535935017</v>
       </c>
       <c r="N231" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O231" t="n">
-        <v>0.03735847303664114</v>
+        <v>0.03365312922206193</v>
       </c>
       <c r="P231" t="n">
-        <v>0.130052095638832</v>
+        <v>0.1188891576795008</v>
       </c>
       <c r="Q231" t="n">
-        <v>2.233339981220404</v>
+        <v>2.202567447973286</v>
       </c>
     </row>
     <row r="232">
@@ -14137,16 +14137,16 @@
         <v>1.856371956215979</v>
       </c>
       <c r="N232" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O232" t="n">
-        <v>0.07697834018434457</v>
+        <v>0.07425496472700135</v>
       </c>
       <c r="P232" t="n">
-        <v>0.03229160705989495</v>
+        <v>0.02554513224725168</v>
       </c>
       <c r="Q232" t="n">
-        <v>2.270126654117744</v>
+        <v>2.249552429835627</v>
       </c>
     </row>
     <row r="233">
@@ -14196,16 +14196,16 @@
         <v>2.171832447641965</v>
       </c>
       <c r="N233" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1762045668946978</v>
+        <v>0.1758085925458792</v>
       </c>
       <c r="P233" t="n">
-        <v>-0.1353277709968438</v>
+        <v>-0.1449943140940708</v>
       </c>
       <c r="Q233" t="n">
-        <v>2.491727140273455</v>
+        <v>2.492204359742425</v>
       </c>
     </row>
     <row r="234">
@@ -14255,16 +14255,16 @@
         <v>2.389200923514441</v>
       </c>
       <c r="N234" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O234" t="n">
-        <v>0.04444015834053376</v>
+        <v>0.04136803545225749</v>
       </c>
       <c r="P234" t="n">
-        <v>0.201833881518138</v>
+        <v>0.1917046246400829</v>
       </c>
       <c r="Q234" t="n">
-        <v>2.078006641742844</v>
+        <v>2.081820097630829</v>
       </c>
     </row>
     <row r="235">
@@ -14314,16 +14314,16 @@
         <v>2.174913384159385</v>
       </c>
       <c r="N235" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O235" t="n">
-        <v>0.06449294821253318</v>
+        <v>0.06143200202584104</v>
       </c>
       <c r="P235" t="n">
-        <v>0.05680674716993234</v>
+        <v>0.04689792774219241</v>
       </c>
       <c r="Q235" t="n">
-        <v>2.241124800134004</v>
+        <v>2.229599747534342</v>
       </c>
     </row>
     <row r="236">
@@ -14373,16 +14373,16 @@
         <v>1.919622844000926</v>
       </c>
       <c r="N236" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O236" t="n">
-        <v>0.07598951565891744</v>
+        <v>0.07300934312333965</v>
       </c>
       <c r="P236" t="n">
-        <v>-0.03078005408929578</v>
+        <v>-0.03723971305393761</v>
       </c>
       <c r="Q236" t="n">
-        <v>2.303457188961147</v>
+        <v>2.281997817197833</v>
       </c>
     </row>
     <row r="237">
@@ -14432,16 +14432,16 @@
         <v>2.175867269640444</v>
       </c>
       <c r="N237" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O237" t="n">
-        <v>0.08695677534300568</v>
+        <v>0.0841656695276643</v>
       </c>
       <c r="P237" t="n">
-        <v>-0.0995239397868411</v>
+        <v>-0.1018610770599952</v>
       </c>
       <c r="Q237" t="n">
-        <v>2.315089337025551</v>
+        <v>2.293199126941488</v>
       </c>
     </row>
     <row r="238">
@@ -14491,16 +14491,16 @@
         <v>2.292162609111811</v>
       </c>
       <c r="N238" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O238" t="n">
-        <v>0.10857492998191</v>
+        <v>0.1070261635220895</v>
       </c>
       <c r="P238" t="n">
-        <v>0.06908206269017034</v>
+        <v>0.05765780202933098</v>
       </c>
       <c r="Q238" t="n">
-        <v>2.145779495769131</v>
+        <v>2.187916427635112</v>
       </c>
     </row>
     <row r="239">
@@ -14550,16 +14550,16 @@
         <v>1.5</v>
       </c>
       <c r="N239" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O239" t="n">
-        <v>0.001099689366849982</v>
+        <v>-0.003079324258971256</v>
       </c>
       <c r="P239" t="n">
-        <v>0.326670315275145</v>
+        <v>0.304982502570548</v>
       </c>
       <c r="Q239" t="n">
-        <v>2.019742226566712</v>
+        <v>2.037554278460254</v>
       </c>
     </row>
     <row r="240">
@@ -14609,16 +14609,16 @@
         <v>3.076385268996257</v>
       </c>
       <c r="N240" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O240" t="n">
-        <v>0.06551753128870318</v>
+        <v>0.06278434446332995</v>
       </c>
       <c r="P240" t="n">
-        <v>0.1491442595248763</v>
+        <v>0.1329671881658278</v>
       </c>
       <c r="Q240" t="n">
-        <v>2.139762949222173</v>
+        <v>2.164862960710026</v>
       </c>
     </row>
     <row r="241">
@@ -14668,16 +14668,16 @@
         <v>1.985609057993168</v>
       </c>
       <c r="N241" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O241" t="n">
-        <v>0.02047899849848916</v>
+        <v>0.0170911432280498</v>
       </c>
       <c r="P241" t="n">
-        <v>0.3301591637487689</v>
+        <v>0.3127636839583249</v>
       </c>
       <c r="Q241" t="n">
-        <v>1.930425484133846</v>
+        <v>1.969594106690954</v>
       </c>
     </row>
     <row r="242">
@@ -14727,16 +14727,16 @@
         <v>2.12029217457982</v>
       </c>
       <c r="N242" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O242" t="n">
-        <v>0.06267982000572314</v>
+        <v>0.06022221733653368</v>
       </c>
       <c r="P242" t="n">
-        <v>0.2248298891752552</v>
+        <v>0.2092881080447074</v>
       </c>
       <c r="Q242" t="n">
-        <v>2.029111738481435</v>
+        <v>2.071140323210383</v>
       </c>
     </row>
     <row r="243">
@@ -14786,16 +14786,16 @@
         <v>2.46489469448488</v>
       </c>
       <c r="N243" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O243" t="n">
-        <v>0.04416418000821906</v>
+        <v>0.04099716203359914</v>
       </c>
       <c r="P243" t="n">
-        <v>0.1547510480012028</v>
+        <v>0.1448387570649305</v>
       </c>
       <c r="Q243" t="n">
-        <v>2.029298130560819</v>
+        <v>2.054739360171498</v>
       </c>
     </row>
     <row r="244">
@@ -14845,16 +14845,16 @@
         <v>2.519470464428615</v>
       </c>
       <c r="N244" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O244" t="n">
-        <v>0.03123441032871485</v>
+        <v>0.02826408074152947</v>
       </c>
       <c r="P244" t="n">
-        <v>0.3430228084007294</v>
+        <v>0.325744297989716</v>
       </c>
       <c r="Q244" t="n">
-        <v>1.897665436935668</v>
+        <v>1.949474474669276</v>
       </c>
     </row>
     <row r="245">
@@ -14904,16 +14904,16 @@
         <v>2.045720617683503</v>
       </c>
       <c r="N245" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O245" t="n">
-        <v>0.04972202436455791</v>
+        <v>0.0467242952174898</v>
       </c>
       <c r="P245" t="n">
-        <v>0.1785456255753143</v>
+        <v>0.1654224280344131</v>
       </c>
       <c r="Q245" t="n">
-        <v>2.054118817254761</v>
+        <v>2.081760663587989</v>
       </c>
     </row>
     <row r="246">
@@ -14963,16 +14963,16 @@
         <v>1.916091474589909</v>
       </c>
       <c r="N246" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O246" t="n">
-        <v>0.07354858904877437</v>
+        <v>0.07067638917777649</v>
       </c>
       <c r="P246" t="n">
-        <v>0.006194243699720797</v>
+        <v>-0.00148826776036666</v>
       </c>
       <c r="Q246" t="n">
-        <v>2.221480381489504</v>
+        <v>2.221322190626821</v>
       </c>
     </row>
     <row r="247">
@@ -15022,16 +15022,16 @@
         <v>2.206662329477553</v>
       </c>
       <c r="N247" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O247" t="n">
-        <v>0.07277228289209357</v>
+        <v>0.06965329276962312</v>
       </c>
       <c r="P247" t="n">
-        <v>-0.04645931853337018</v>
+        <v>-0.05363021898839539</v>
       </c>
       <c r="Q247" t="n">
-        <v>2.283625363221152</v>
+        <v>2.271540780497883</v>
       </c>
     </row>
     <row r="248">
@@ -15081,16 +15081,16 @@
         <v>2.409774392370587</v>
       </c>
       <c r="N248" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1505869140514791</v>
+        <v>0.1496744908508713</v>
       </c>
       <c r="P248" t="n">
-        <v>-0.1461546239771753</v>
+        <v>-0.15016288647316</v>
       </c>
       <c r="Q248" t="n">
-        <v>2.280901362297764</v>
+        <v>2.314492657552141</v>
       </c>
     </row>
     <row r="249">
@@ -15140,16 +15140,16 @@
         <v>3.089974188252232</v>
       </c>
       <c r="N249" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O249" t="n">
-        <v>0.04732136042735134</v>
+        <v>0.04149330619665879</v>
       </c>
       <c r="P249" t="n">
-        <v>-0.1760779085732461</v>
+        <v>-0.2198331749056906</v>
       </c>
       <c r="Q249" t="n">
-        <v>3.110933229315476</v>
+        <v>2.983504674525982</v>
       </c>
     </row>
     <row r="250">
@@ -15199,16 +15199,16 @@
         <v>2.479974829687293</v>
       </c>
       <c r="N250" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O250" t="n">
-        <v>0.09021308574710972</v>
+        <v>0.08839738857643309</v>
       </c>
       <c r="P250" t="n">
-        <v>0.09534298984129161</v>
+        <v>0.08835757859441758</v>
       </c>
       <c r="Q250" t="n">
-        <v>2.000898510421753</v>
+        <v>2.057902657651417</v>
       </c>
     </row>
     <row r="251">
@@ -15258,16 +15258,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N251" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1210414640867269</v>
+        <v>0.1190025665771703</v>
       </c>
       <c r="P251" t="n">
-        <v>-0.2485859279503286</v>
+        <v>-0.2448137086253307</v>
       </c>
       <c r="Q251" t="n">
-        <v>2.284750721194841</v>
+        <v>2.293300195892717</v>
       </c>
     </row>
     <row r="252">
@@ -15317,16 +15317,16 @@
         <v>1.5</v>
       </c>
       <c r="N252" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798128</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1045290908173971</v>
+        <v>0.1025598710536467</v>
       </c>
       <c r="P252" t="n">
-        <v>-0.09706738166442269</v>
+        <v>-0.09617584153838106</v>
       </c>
       <c r="Q252" t="n">
-        <v>2.129062865684837</v>
+        <v>2.160397852924617</v>
       </c>
     </row>
     <row r="253">
@@ -15376,16 +15376,16 @@
         <v>2.107494143982407</v>
       </c>
       <c r="N253" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798126</v>
       </c>
       <c r="O253" t="n">
-        <v>0.09141070351761663</v>
+        <v>0.08941115610118712</v>
       </c>
       <c r="P253" t="n">
-        <v>0.0414758915115622</v>
+        <v>0.03509079694907742</v>
       </c>
       <c r="Q253" t="n">
-        <v>2.060460621536558</v>
+        <v>2.107201655772378</v>
       </c>
     </row>
     <row r="254">
@@ -15435,16 +15435,16 @@
         <v>1.982855391251864</v>
       </c>
       <c r="N254" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O254" t="n">
-        <v>0.09518226245046248</v>
+        <v>0.09297693519189888</v>
       </c>
       <c r="P254" t="n">
-        <v>-0.03194828997780366</v>
+        <v>-0.03726532814739061</v>
       </c>
       <c r="Q254" t="n">
-        <v>2.165601510554887</v>
+        <v>2.191393174426429</v>
       </c>
     </row>
     <row r="255">
@@ -15494,16 +15494,16 @@
         <v>2.194017056983228</v>
       </c>
       <c r="N255" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O255" t="n">
-        <v>0.110541343972165</v>
+        <v>0.1080501019886509</v>
       </c>
       <c r="P255" t="n">
-        <v>-0.2112325719321827</v>
+        <v>-0.2137671692904139</v>
       </c>
       <c r="Q255" t="n">
-        <v>2.404859188978719</v>
+        <v>2.387216223911258</v>
       </c>
     </row>
     <row r="256">
@@ -15553,16 +15553,16 @@
         <v>2.595473261476525</v>
       </c>
       <c r="N256" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1027617198839608</v>
+        <v>0.1000752169265669</v>
       </c>
       <c r="P256" t="n">
-        <v>-0.1981628042769494</v>
+        <v>-0.2009554331247242</v>
       </c>
       <c r="Q256" t="n">
-        <v>2.391765260576378</v>
+        <v>2.372847173035926</v>
       </c>
     </row>
     <row r="257">
@@ -15612,16 +15612,16 @@
         <v>2.611494526868577</v>
       </c>
       <c r="N257" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1291363654191713</v>
+        <v>0.1277295276007689</v>
       </c>
       <c r="P257" t="n">
-        <v>-0.06208368975666065</v>
+        <v>-0.06957743036463133</v>
       </c>
       <c r="Q257" t="n">
-        <v>2.297291634506732</v>
+        <v>2.31295416352053</v>
       </c>
     </row>
     <row r="258">
@@ -15671,16 +15671,16 @@
         <v>2.852405603980102</v>
       </c>
       <c r="N258" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O258" t="n">
-        <v>0.07454713870454233</v>
+        <v>0.07183045172350175</v>
       </c>
       <c r="P258" t="n">
-        <v>0.04821414531488433</v>
+        <v>0.03997406038641878</v>
       </c>
       <c r="Q258" t="n">
-        <v>2.217586149850336</v>
+        <v>2.213935542440559</v>
       </c>
     </row>
     <row r="259">
@@ -15730,16 +15730,16 @@
         <v>2.389739184726861</v>
       </c>
       <c r="N259" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O259" t="n">
-        <v>0.05724373073507137</v>
+        <v>0.05439846451298293</v>
       </c>
       <c r="P259" t="n">
-        <v>0.1474713375355445</v>
+        <v>0.1379851917096937</v>
       </c>
       <c r="Q259" t="n">
-        <v>2.097314319598511</v>
+        <v>2.108667326591259</v>
       </c>
     </row>
     <row r="260">
@@ -15789,16 +15789,16 @@
         <v>2.167824882277258</v>
       </c>
       <c r="N260" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O260" t="n">
-        <v>0.0981055079511412</v>
+        <v>0.09580346876705027</v>
       </c>
       <c r="P260" t="n">
-        <v>-0.02100813861681883</v>
+        <v>-0.03023340305073587</v>
       </c>
       <c r="Q260" t="n">
-        <v>2.308931822618156</v>
+        <v>2.304584311944241</v>
       </c>
     </row>
     <row r="261">
@@ -15848,16 +15848,16 @@
         <v>1</v>
       </c>
       <c r="N261" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O261" t="n">
-        <v>0.05373450241186668</v>
+        <v>0.05014287309478137</v>
       </c>
       <c r="P261" t="n">
-        <v>-0.001201042865359381</v>
+        <v>-0.006724833006874043</v>
       </c>
       <c r="Q261" t="n">
-        <v>2.315940850968796</v>
+        <v>2.27150591708286</v>
       </c>
     </row>
     <row r="262">
@@ -15907,16 +15907,16 @@
         <v>1.500000000000001</v>
       </c>
       <c r="N262" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O262" t="n">
-        <v>0.05309845409591704</v>
+        <v>0.05031623421386461</v>
       </c>
       <c r="P262" t="n">
-        <v>0.2180896720873973</v>
+        <v>0.2058128355399749</v>
       </c>
       <c r="Q262" t="n">
-        <v>2.077085970348127</v>
+        <v>2.090034695583767</v>
       </c>
     </row>
     <row r="263">
@@ -15966,16 +15966,16 @@
         <v>2.147318933498036</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O263" t="n">
-        <v>0.05243653441718331</v>
+        <v>0.04946764907778556</v>
       </c>
       <c r="P263" t="n">
-        <v>0.1456746962332793</v>
+        <v>0.1368843583815347</v>
       </c>
       <c r="Q263" t="n">
-        <v>2.077075855448291</v>
+        <v>2.090046465226194</v>
       </c>
     </row>
     <row r="264">
@@ -16025,16 +16025,16 @@
         <v>2.411671512147268</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O264" t="n">
-        <v>0.08751133181248161</v>
+        <v>0.08472688037269629</v>
       </c>
       <c r="P264" t="n">
-        <v>-0.08249226050645778</v>
+        <v>-0.08763353901547957</v>
       </c>
       <c r="Q264" t="n">
-        <v>2.331322474140025</v>
+        <v>2.31146881147331</v>
       </c>
     </row>
     <row r="265">
@@ -16084,16 +16084,16 @@
         <v>2.848823562284922</v>
       </c>
       <c r="N265" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O265" t="n">
-        <v>0.08314228692709849</v>
+        <v>0.08007810905249171</v>
       </c>
       <c r="P265" t="n">
-        <v>-0.1171779310624101</v>
+        <v>-0.121951737084059</v>
       </c>
       <c r="Q265" t="n">
-        <v>2.368488198230388</v>
+        <v>2.339880726779986</v>
       </c>
     </row>
     <row r="266">
@@ -16143,16 +16143,16 @@
         <v>2.390434932787405</v>
       </c>
       <c r="N266" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O266" t="n">
-        <v>0.1344967143639745</v>
+        <v>0.1324408683059139</v>
       </c>
       <c r="P266" t="n">
-        <v>-0.2929275948634169</v>
+        <v>-0.2916500852814103</v>
       </c>
       <c r="Q266" t="n">
-        <v>2.523387484059329</v>
+        <v>2.482962371815859</v>
       </c>
     </row>
     <row r="267">
@@ -16202,16 +16202,16 @@
         <v>2.891801723980105</v>
       </c>
       <c r="N267" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798106</v>
       </c>
       <c r="O267" t="n">
-        <v>0.1189168800370435</v>
+        <v>0.1161466013800416</v>
       </c>
       <c r="P267" t="n">
-        <v>-0.2878313196326543</v>
+        <v>-0.2913681494638884</v>
       </c>
       <c r="Q267" t="n">
-        <v>2.667523725090427</v>
+        <v>2.591525779956616</v>
       </c>
     </row>
     <row r="268">
@@ -16261,16 +16261,16 @@
         <v>1.696140000158395</v>
       </c>
       <c r="N268" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O268" t="n">
-        <v>0.1017235160623356</v>
+        <v>0.09866756218710376</v>
       </c>
       <c r="P268" t="n">
-        <v>-0.2486867870030735</v>
+        <v>-0.2500859512705398</v>
       </c>
       <c r="Q268" t="n">
-        <v>2.574833095184819</v>
+        <v>2.504257304514661</v>
       </c>
     </row>
     <row r="269">
@@ -16320,16 +16320,16 @@
         <v>1.601808534486536</v>
       </c>
       <c r="N269" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O269" t="n">
-        <v>0.1119309993829967</v>
+        <v>0.1088103200586746</v>
       </c>
       <c r="P269" t="n">
-        <v>-0.3370626215716159</v>
+        <v>-0.3381383873311345</v>
       </c>
       <c r="Q269" t="n">
-        <v>2.684086852023656</v>
+        <v>2.599565550987871</v>
       </c>
     </row>
     <row r="270">
@@ -16379,16 +16379,16 @@
         <v>1.313233135437813</v>
       </c>
       <c r="N270" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O270" t="n">
-        <v>0.1439794826825513</v>
+        <v>0.1420873765503448</v>
       </c>
       <c r="P270" t="n">
-        <v>-0.3064176823417887</v>
+        <v>-0.3063353416567364</v>
       </c>
       <c r="Q270" t="n">
-        <v>2.590935623010793</v>
+        <v>2.541291207727456</v>
       </c>
     </row>
     <row r="271">
@@ -16438,16 +16438,16 @@
         <v>1</v>
       </c>
       <c r="N271" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798098</v>
       </c>
       <c r="O271" t="n">
-        <v>0.1116691890457144</v>
+        <v>0.1082255206197056</v>
       </c>
       <c r="P271" t="n">
-        <v>-0.3889469172408081</v>
+        <v>-0.3887365895563546</v>
       </c>
       <c r="Q271" t="n">
-        <v>2.842239826481125</v>
+        <v>2.714510776227443</v>
       </c>
     </row>
     <row r="272">
@@ -16497,16 +16497,16 @@
         <v>1.414537397724834</v>
       </c>
       <c r="N272" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O272" t="n">
-        <v>0.1084391379407824</v>
+        <v>0.1053130266985772</v>
       </c>
       <c r="P272" t="n">
-        <v>-0.3321012335160504</v>
+        <v>-0.3312735976485933</v>
       </c>
       <c r="Q272" t="n">
-        <v>2.631014731029578</v>
+        <v>2.553396856302117</v>
       </c>
     </row>
     <row r="273">
@@ -16556,16 +16556,16 @@
         <v>2.045313495123622</v>
       </c>
       <c r="N273" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O273" t="n">
-        <v>0.112649634421972</v>
+        <v>0.1099608828446375</v>
       </c>
       <c r="P273" t="n">
-        <v>-0.2861442349336406</v>
+        <v>-0.2833404645139389</v>
       </c>
       <c r="Q273" t="n">
-        <v>2.512620771729908</v>
+        <v>2.458220765730015</v>
       </c>
     </row>
     <row r="274">
@@ -16615,16 +16615,16 @@
         <v>2.346422858371362</v>
       </c>
       <c r="N274" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O274" t="n">
-        <v>0.1094158471991008</v>
+        <v>0.1065640674348064</v>
       </c>
       <c r="P274" t="n">
-        <v>-0.2922202218786317</v>
+        <v>-0.2907083075424789</v>
       </c>
       <c r="Q274" t="n">
-        <v>2.532002794344406</v>
+        <v>2.475563752002847</v>
       </c>
     </row>
     <row r="275">
@@ -16674,16 +16674,16 @@
         <v>2.53868442540057</v>
       </c>
       <c r="N275" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O275" t="n">
-        <v>0.1385562644829818</v>
+        <v>0.1372498915316172</v>
       </c>
       <c r="P275" t="n">
-        <v>-0.1643710801304355</v>
+        <v>-0.16559504718227</v>
       </c>
       <c r="Q275" t="n">
-        <v>2.283351964125841</v>
+        <v>2.30384138772576</v>
       </c>
     </row>
     <row r="276">
@@ -16733,16 +16733,16 @@
         <v>2.262123934177203</v>
       </c>
       <c r="N276" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O276" t="n">
-        <v>0.1023173161839604</v>
+        <v>0.1007883092093571</v>
       </c>
       <c r="P276" t="n">
-        <v>0.07463287288390721</v>
+        <v>0.0679831436425163</v>
       </c>
       <c r="Q276" t="n">
-        <v>2.034630629898299</v>
+        <v>2.089897941429556</v>
       </c>
     </row>
     <row r="277">
@@ -16792,16 +16792,16 @@
         <v>1.374337881090158</v>
       </c>
       <c r="N277" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O277" t="n">
-        <v>0.07699573962771861</v>
+        <v>0.07431109287284643</v>
       </c>
       <c r="P277" t="n">
-        <v>-0.001240613811029773</v>
+        <v>-0.007198617522402459</v>
       </c>
       <c r="Q277" t="n">
-        <v>2.155345342740768</v>
+        <v>2.172154465646917</v>
       </c>
     </row>
     <row r="278">
@@ -16851,16 +16851,16 @@
         <v>1.448340533893861</v>
       </c>
       <c r="N278" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O278" t="n">
-        <v>0.1037242500211844</v>
+        <v>0.1018242751119192</v>
       </c>
       <c r="P278" t="n">
-        <v>-0.0481557690102128</v>
+        <v>-0.04994309513903346</v>
       </c>
       <c r="Q278" t="n">
-        <v>2.139917354444872</v>
+        <v>2.16845529416332</v>
       </c>
     </row>
     <row r="279">
@@ -16910,16 +16910,16 @@
         <v>1.293914846360226</v>
       </c>
       <c r="N279" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O279" t="n">
-        <v>0.08114711604119702</v>
+        <v>0.07834034233911767</v>
       </c>
       <c r="P279" t="n">
-        <v>-0.06473282223544979</v>
+        <v>-0.06938589716113218</v>
       </c>
       <c r="Q279" t="n">
-        <v>2.226910190822515</v>
+        <v>2.230562038605505</v>
       </c>
     </row>
     <row r="280">
@@ -16969,16 +16969,16 @@
         <v>1.471740092349684</v>
       </c>
       <c r="N280" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O280" t="n">
-        <v>0.08005534207564993</v>
+        <v>0.07748755904169971</v>
       </c>
       <c r="P280" t="n">
-        <v>-0.002796388099325253</v>
+        <v>-0.008009430794958042</v>
       </c>
       <c r="Q280" t="n">
-        <v>2.14364099882282</v>
+        <v>2.163228707098452</v>
       </c>
     </row>
     <row r="281">
@@ -17028,16 +17028,16 @@
         <v>2.124678745864521</v>
       </c>
       <c r="N281" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O281" t="n">
-        <v>0.1023278587884991</v>
+        <v>0.09992906896378677</v>
       </c>
       <c r="P281" t="n">
-        <v>-0.1444537036161558</v>
+        <v>-0.1452032835373923</v>
       </c>
       <c r="Q281" t="n">
-        <v>2.298208569934234</v>
+        <v>2.291216263531243</v>
       </c>
     </row>
     <row r="282">
@@ -17087,16 +17087,16 @@
         <v>2.39656107586889</v>
       </c>
       <c r="N282" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O282" t="n">
-        <v>0.1008608469191722</v>
+        <v>0.09845372159181075</v>
       </c>
       <c r="P282" t="n">
-        <v>-0.151162603803532</v>
+        <v>-0.1501192815592438</v>
       </c>
       <c r="Q282" t="n">
-        <v>2.271466196667099</v>
+        <v>2.266822531645477</v>
       </c>
     </row>
     <row r="283">
@@ -17146,16 +17146,16 @@
         <v>2.754507615626635</v>
       </c>
       <c r="N283" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O283" t="n">
-        <v>0.134548806323607</v>
+        <v>0.1336497438140679</v>
       </c>
       <c r="P283" t="n">
-        <v>-0.03942668144890625</v>
+        <v>-0.04260621735240268</v>
       </c>
       <c r="Q283" t="n">
-        <v>2.119478235487919</v>
+        <v>2.172776150347173</v>
       </c>
     </row>
     <row r="284">
@@ -17205,16 +17205,16 @@
         <v>1.5</v>
       </c>
       <c r="N284" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O284" t="n">
-        <v>0.03899863731884982</v>
+        <v>0.03656247311122698</v>
       </c>
       <c r="P284" t="n">
-        <v>0.3765711530882493</v>
+        <v>0.3604998630080606</v>
       </c>
       <c r="Q284" t="n">
-        <v>1.748094019059741</v>
+        <v>1.838924446860934</v>
       </c>
     </row>
     <row r="285">
@@ -17264,16 +17264,16 @@
         <v>2.483941302951547</v>
       </c>
       <c r="N285" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O285" t="n">
-        <v>0.08319603715435354</v>
+        <v>0.08101253701362666</v>
       </c>
       <c r="P285" t="n">
-        <v>0.06366883991867342</v>
+        <v>0.0571177507171239</v>
       </c>
       <c r="Q285" t="n">
-        <v>2.051244931743302</v>
+        <v>2.093490074347516</v>
       </c>
     </row>
     <row r="286">
@@ -17323,16 +17323,16 @@
         <v>1.178984357981619</v>
       </c>
       <c r="N286" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798127</v>
       </c>
       <c r="O286" t="n">
-        <v>0.07100726077131556</v>
+        <v>0.06929154413489416</v>
       </c>
       <c r="P286" t="n">
-        <v>0.2570311564534746</v>
+        <v>0.2484045148867206</v>
       </c>
       <c r="Q286" t="n">
-        <v>1.787480760907295</v>
+        <v>1.877341302458846</v>
       </c>
     </row>
     <row r="287">
@@ -17382,16 +17382,16 @@
         <v>1.443358729091218</v>
       </c>
       <c r="N287" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O287" t="n">
-        <v>0.118350716109787</v>
+        <v>0.1172772223058829</v>
       </c>
       <c r="P287" t="n">
-        <v>0.05702435185663862</v>
+        <v>0.05030240460425935</v>
       </c>
       <c r="Q287" t="n">
-        <v>2.030969743062258</v>
+        <v>2.098534048917261</v>
       </c>
     </row>
     <row r="288">
@@ -17441,16 +17441,16 @@
         <v>1.523711818295173</v>
       </c>
       <c r="N288" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O288" t="n">
-        <v>0.1531957218371563</v>
+        <v>0.1526163034944419</v>
       </c>
       <c r="P288" t="n">
-        <v>-0.06758485152594218</v>
+        <v>-0.07554994875150077</v>
       </c>
       <c r="Q288" t="n">
-        <v>2.215044931474852</v>
+        <v>2.26989644387077</v>
       </c>
     </row>
     <row r="289">
@@ -17500,16 +17500,16 @@
         <v>1.789435523657966</v>
       </c>
       <c r="N289" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798125</v>
       </c>
       <c r="O289" t="n">
-        <v>0.1037060497641271</v>
+        <v>0.1018866984115828</v>
       </c>
       <c r="P289" t="n">
-        <v>-0.006151043438359829</v>
+        <v>-0.01194386709878482</v>
       </c>
       <c r="Q289" t="n">
-        <v>2.1249104581088</v>
+        <v>2.164443254664812</v>
       </c>
     </row>
     <row r="290">
@@ -17559,16 +17559,16 @@
         <v>2.281291930843965</v>
       </c>
       <c r="N290" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O290" t="n">
-        <v>0.09632933014131628</v>
+        <v>0.09400820352498565</v>
       </c>
       <c r="P290" t="n">
-        <v>-0.07396863833635026</v>
+        <v>-0.07679235072488036</v>
       </c>
       <c r="Q290" t="n">
-        <v>2.222352743588362</v>
+        <v>2.230311393790275</v>
       </c>
     </row>
     <row r="291">
@@ -17618,16 +17618,16 @@
         <v>2.518181527300346</v>
       </c>
       <c r="N291" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O291" t="n">
-        <v>0.08777646382451348</v>
+        <v>0.08524119325458658</v>
       </c>
       <c r="P291" t="n">
-        <v>-0.0515060499256362</v>
+        <v>-0.05565796600920142</v>
       </c>
       <c r="Q291" t="n">
-        <v>2.214703824480125</v>
+        <v>2.221412984599375</v>
       </c>
     </row>
     <row r="292">
@@ -17677,16 +17677,16 @@
         <v>2.776224066834431</v>
       </c>
       <c r="N292" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O292" t="n">
-        <v>0.1717785057398544</v>
+        <v>0.1715585625970103</v>
       </c>
       <c r="P292" t="n">
-        <v>-0.1084871175356868</v>
+        <v>-0.1139787961281502</v>
       </c>
       <c r="Q292" t="n">
-        <v>2.342169426766306</v>
+        <v>2.366667891990189</v>
       </c>
     </row>
     <row r="293">
@@ -17736,16 +17736,16 @@
         <v>2.249093190457154</v>
       </c>
       <c r="N293" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O293" t="n">
-        <v>0.08552628077363576</v>
+        <v>0.08269731669430329</v>
       </c>
       <c r="P293" t="n">
-        <v>-0.07549171094303203</v>
+        <v>-0.07969148705189306</v>
       </c>
       <c r="Q293" t="n">
-        <v>2.347696608517887</v>
+        <v>2.317584507006055</v>
       </c>
     </row>
     <row r="294">
@@ -17795,16 +17795,16 @@
         <v>2.727714024660366</v>
       </c>
       <c r="N294" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O294" t="n">
-        <v>0.08721695596036991</v>
+        <v>0.0849043885420455</v>
       </c>
       <c r="P294" t="n">
-        <v>0.0194866769744742</v>
+        <v>0.0154728723906674</v>
       </c>
       <c r="Q294" t="n">
-        <v>2.19589470070739</v>
+        <v>2.195596729041712</v>
       </c>
     </row>
     <row r="295">
@@ -17854,16 +17854,16 @@
         <v>1</v>
       </c>
       <c r="N295" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798102</v>
       </c>
       <c r="O295" t="n">
-        <v>0.06228576029572182</v>
+        <v>0.058937363736183</v>
       </c>
       <c r="P295" t="n">
-        <v>-0.001509490156631793</v>
+        <v>-0.006329807078423164</v>
       </c>
       <c r="Q295" t="n">
-        <v>2.349243311284682</v>
+        <v>2.296763038329229</v>
       </c>
     </row>
     <row r="296">
@@ -17913,16 +17913,16 @@
         <v>1.5</v>
       </c>
       <c r="N296" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O296" t="n">
-        <v>0.05710501381214633</v>
+        <v>0.05362008256264614</v>
       </c>
       <c r="P296" t="n">
-        <v>0.01331531963292085</v>
+        <v>0.006353574981156837</v>
       </c>
       <c r="Q296" t="n">
-        <v>2.334910409822893</v>
+        <v>2.288898660279368</v>
       </c>
     </row>
     <row r="297">
@@ -17972,16 +17972,16 @@
         <v>1.543518557180188</v>
       </c>
       <c r="N297" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O297" t="n">
-        <v>0.07856471104632995</v>
+        <v>0.07565926989407432</v>
       </c>
       <c r="P297" t="n">
-        <v>-0.02746286174201554</v>
+        <v>-0.03292752238585638</v>
       </c>
       <c r="Q297" t="n">
-        <v>2.332718696039654</v>
+        <v>2.299849141649335</v>
       </c>
     </row>
     <row r="298">
@@ -18031,16 +18031,16 @@
         <v>1.806117529550021</v>
       </c>
       <c r="N298" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O298" t="n">
-        <v>0.0953149352307589</v>
+        <v>0.09307425884343862</v>
       </c>
       <c r="P298" t="n">
-        <v>-0.01501770780232109</v>
+        <v>-0.01981627259266196</v>
       </c>
       <c r="Q298" t="n">
-        <v>2.254832494140461</v>
+        <v>2.249340933874227</v>
       </c>
     </row>
     <row r="299">
@@ -18090,16 +18090,16 @@
         <v>2.013425631032702</v>
       </c>
       <c r="N299" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O299" t="n">
-        <v>0.08052995874071914</v>
+        <v>0.07769731845770084</v>
       </c>
       <c r="P299" t="n">
-        <v>-0.05451284271854802</v>
+        <v>-0.057800751604743</v>
       </c>
       <c r="Q299" t="n">
-        <v>2.280173143821671</v>
+        <v>2.261214997518735</v>
       </c>
     </row>
     <row r="300">
@@ -18149,16 +18149,16 @@
         <v>2.591575756073917</v>
       </c>
       <c r="N300" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798129</v>
       </c>
       <c r="O300" t="n">
-        <v>0.1606673964345131</v>
+        <v>0.16023996916903</v>
       </c>
       <c r="P300" t="n">
-        <v>-0.1738107631087116</v>
+        <v>-0.1705348881699426</v>
       </c>
       <c r="Q300" t="n">
-        <v>2.1602422377448</v>
+        <v>2.215050996316084</v>
       </c>
     </row>
     <row r="301">
@@ -18208,16 +18208,16 @@
         <v>1.922929931946162</v>
       </c>
       <c r="N301" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O301" t="n">
-        <v>0.1499846891957344</v>
+        <v>0.1488616848954183</v>
       </c>
       <c r="P301" t="n">
-        <v>-0.3020882103252557</v>
+        <v>-0.2918512646817373</v>
       </c>
       <c r="Q301" t="n">
-        <v>2.229255525858659</v>
+        <v>2.256000805184467</v>
       </c>
     </row>
     <row r="302">
@@ -18267,16 +18267,16 @@
         <v>2.366446696117301</v>
       </c>
       <c r="N302" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O302" t="n">
-        <v>0.1470576124426941</v>
+        <v>0.1459930865113609</v>
       </c>
       <c r="P302" t="n">
-        <v>-0.2632305822733259</v>
+        <v>-0.2537094140967679</v>
       </c>
       <c r="Q302" t="n">
-        <v>2.190279294175585</v>
+        <v>2.22315791203669</v>
       </c>
     </row>
     <row r="303">
@@ -18326,16 +18326,16 @@
         <v>2.10392564033197</v>
       </c>
       <c r="N303" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798129</v>
       </c>
       <c r="O303" t="n">
-        <v>0.1367777548046987</v>
+        <v>0.1354117191201075</v>
       </c>
       <c r="P303" t="n">
-        <v>-0.2042815466169779</v>
+        <v>-0.2018488682180702</v>
       </c>
       <c r="Q303" t="n">
-        <v>2.229492746524227</v>
+        <v>2.259570158561024</v>
       </c>
     </row>
     <row r="304">
@@ -18385,16 +18385,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N304" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798137</v>
       </c>
       <c r="O304" t="n">
-        <v>0.1708723745893479</v>
+        <v>0.1705766257409185</v>
       </c>
       <c r="P304" t="n">
-        <v>-0.3215351594270974</v>
+        <v>-0.3061922413399602</v>
       </c>
       <c r="Q304" t="n">
-        <v>2.099092261441835</v>
+        <v>2.161289202428456</v>
       </c>
     </row>
     <row r="305">
@@ -18444,16 +18444,16 @@
         <v>1.5</v>
       </c>
       <c r="N305" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798134</v>
       </c>
       <c r="O305" t="n">
-        <v>0.1949679535643307</v>
+        <v>0.195090885673381</v>
       </c>
       <c r="P305" t="n">
-        <v>-0.3766853193650294</v>
+        <v>-0.363369875076315</v>
       </c>
       <c r="Q305" t="n">
-        <v>2.225653217576595</v>
+        <v>2.278027013816219</v>
       </c>
     </row>
     <row r="306">
@@ -18503,16 +18503,16 @@
         <v>1.875983085926304</v>
       </c>
       <c r="N306" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O306" t="n">
-        <v>0.1301843302246041</v>
+        <v>0.128826761887624</v>
       </c>
       <c r="P306" t="n">
-        <v>-0.141260768995887</v>
+        <v>-0.1392685110753937</v>
       </c>
       <c r="Q306" t="n">
-        <v>2.201731680337077</v>
+        <v>2.227767390809533</v>
       </c>
     </row>
     <row r="307">
@@ -18562,16 +18562,16 @@
         <v>2.04042933805079</v>
       </c>
       <c r="N307" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O307" t="n">
-        <v>0.1137145766668318</v>
+        <v>0.1116980879378399</v>
       </c>
       <c r="P307" t="n">
-        <v>-0.1602225346532175</v>
+        <v>-0.1593121749434484</v>
       </c>
       <c r="Q307" t="n">
-        <v>2.258507593860676</v>
+        <v>2.26613425655916</v>
       </c>
     </row>
     <row r="308">
@@ -18621,16 +18621,16 @@
         <v>2.300016341032164</v>
       </c>
       <c r="N308" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O308" t="n">
-        <v>0.1598949248665915</v>
+        <v>0.1590167448942494</v>
       </c>
       <c r="P308" t="n">
-        <v>-0.2011498309319971</v>
+        <v>-0.2016621697582558</v>
       </c>
       <c r="Q308" t="n">
-        <v>2.412961229145525</v>
+        <v>2.408994687380374</v>
       </c>
     </row>
     <row r="309">
@@ -18680,16 +18680,16 @@
         <v>2.141425594417664</v>
       </c>
       <c r="N309" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O309" t="n">
-        <v>0.1069718857601493</v>
+        <v>0.1051071511733831</v>
       </c>
       <c r="P309" t="n">
-        <v>-0.03736395689046272</v>
+        <v>-0.03818237559120534</v>
       </c>
       <c r="Q309" t="n">
-        <v>2.243682494740066</v>
+        <v>2.23763952025994</v>
       </c>
     </row>
     <row r="310">
@@ -18739,16 +18739,16 @@
         <v>2.086799292840594</v>
       </c>
       <c r="N310" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O310" t="n">
-        <v>0.08561586540794808</v>
+        <v>0.08295861111976394</v>
       </c>
       <c r="P310" t="n">
-        <v>-0.06019269169165258</v>
+        <v>-0.06117754093010941</v>
       </c>
       <c r="Q310" t="n">
-        <v>2.284395569984784</v>
+        <v>2.259873770726938</v>
       </c>
     </row>
     <row r="311">
@@ -18798,16 +18798,16 @@
         <v>1.843662676263534</v>
       </c>
       <c r="N311" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579811</v>
       </c>
       <c r="O311" t="n">
-        <v>0.1314947944422995</v>
+        <v>0.129443079123053</v>
       </c>
       <c r="P311" t="n">
-        <v>-0.2429293423596731</v>
+        <v>-0.2447457199912528</v>
       </c>
       <c r="Q311" t="n">
-        <v>2.527437228651876</v>
+        <v>2.486380262128685</v>
       </c>
     </row>
     <row r="312">
@@ -18857,16 +18857,16 @@
         <v>2.075485821741652</v>
       </c>
       <c r="N312" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O312" t="n">
-        <v>0.1177358791283902</v>
+        <v>0.1157676287686117</v>
       </c>
       <c r="P312" t="n">
-        <v>-0.1390905468883822</v>
+        <v>-0.1399075878530284</v>
       </c>
       <c r="Q312" t="n">
-        <v>2.362232941368676</v>
+        <v>2.343061503576986</v>
       </c>
     </row>
     <row r="313">
@@ -18916,16 +18916,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="N313" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798102</v>
       </c>
       <c r="O313" t="n">
-        <v>0.07593475562592261</v>
+        <v>0.07303307752655976</v>
       </c>
       <c r="P313" t="n">
-        <v>-0.04596118985730752</v>
+        <v>-0.04451229606272554</v>
       </c>
       <c r="Q313" t="n">
-        <v>2.303275465210262</v>
+        <v>2.257643809750741</v>
       </c>
     </row>
     <row r="314">
@@ -18975,16 +18975,16 @@
         <v>1.875111306265327</v>
       </c>
       <c r="N314" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O314" t="n">
-        <v>0.1162483231163526</v>
+        <v>0.1143150225073313</v>
       </c>
       <c r="P314" t="n">
-        <v>-0.1148169820362847</v>
+        <v>-0.1163638876202584</v>
       </c>
       <c r="Q314" t="n">
-        <v>2.344897163601346</v>
+        <v>2.328580724481808</v>
       </c>
     </row>
     <row r="315">
@@ -19034,16 +19034,16 @@
         <v>1.993387849628447</v>
       </c>
       <c r="N315" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O315" t="n">
-        <v>0.101670050606461</v>
+        <v>0.09937176781525042</v>
       </c>
       <c r="P315" t="n">
-        <v>-0.1019413372186801</v>
+        <v>-0.102781342288659</v>
       </c>
       <c r="Q315" t="n">
-        <v>2.304760849376134</v>
+        <v>2.288654418604939</v>
       </c>
     </row>
     <row r="316">
@@ -19093,16 +19093,16 @@
         <v>2.034547933685609</v>
       </c>
       <c r="N316" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O316" t="n">
-        <v>0.1582698047764151</v>
+        <v>0.1574630231978669</v>
       </c>
       <c r="P316" t="n">
-        <v>-0.2400629373615465</v>
+        <v>-0.2369120669293739</v>
       </c>
       <c r="Q316" t="n">
-        <v>2.248877054370281</v>
+        <v>2.287439085747903</v>
       </c>
     </row>
     <row r="317">
@@ -19152,16 +19152,16 @@
         <v>2.200712507002736</v>
       </c>
       <c r="N317" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798132</v>
       </c>
       <c r="O317" t="n">
-        <v>0.1100357585912862</v>
+        <v>0.1082543802242127</v>
       </c>
       <c r="P317" t="n">
-        <v>-0.1102434645922444</v>
+        <v>-0.1088123019691906</v>
       </c>
       <c r="Q317" t="n">
-        <v>2.08823691945966</v>
+        <v>2.134947120886991</v>
       </c>
     </row>
     <row r="318">
@@ -19211,16 +19211,16 @@
         <v>1.708747698783124</v>
       </c>
       <c r="N318" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798132</v>
       </c>
       <c r="O318" t="n">
-        <v>0.1833111938246193</v>
+        <v>0.1830978611750166</v>
       </c>
       <c r="P318" t="n">
-        <v>-0.2974141275408042</v>
+        <v>-0.2932295694476027</v>
       </c>
       <c r="Q318" t="n">
-        <v>2.28347053860702</v>
+        <v>2.330277060421011</v>
       </c>
     </row>
     <row r="319">
@@ -19270,16 +19270,16 @@
         <v>1.561925405595501</v>
       </c>
       <c r="N319" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798131</v>
       </c>
       <c r="O319" t="n">
-        <v>0.1436926437080386</v>
+        <v>0.1424722461892815</v>
       </c>
       <c r="P319" t="n">
-        <v>-0.2515986586806938</v>
+        <v>-0.2454683237472947</v>
       </c>
       <c r="Q319" t="n">
-        <v>2.217996055934657</v>
+        <v>2.250400388850341</v>
       </c>
     </row>
     <row r="320">
@@ -19329,16 +19329,16 @@
         <v>1.805744642355887</v>
       </c>
       <c r="N320" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579813</v>
       </c>
       <c r="O320" t="n">
-        <v>0.1346991224154559</v>
+        <v>0.1330825338121503</v>
       </c>
       <c r="P320" t="n">
-        <v>-0.2462372361858909</v>
+        <v>-0.2437381808855932</v>
       </c>
       <c r="Q320" t="n">
-        <v>2.281096939889772</v>
+        <v>2.301471063686486</v>
       </c>
     </row>
     <row r="321">
@@ -19388,16 +19388,16 @@
         <v>1.960801187805391</v>
       </c>
       <c r="N321" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O321" t="n">
-        <v>0.128280781269308</v>
+        <v>0.126654112291238</v>
       </c>
       <c r="P321" t="n">
-        <v>-0.1738564217408357</v>
+        <v>-0.1735701668669983</v>
       </c>
       <c r="Q321" t="n">
-        <v>2.275163753362045</v>
+        <v>2.289462552620944</v>
       </c>
     </row>
     <row r="322">
@@ -19447,16 +19447,16 @@
         <v>1.984619266005203</v>
       </c>
       <c r="N322" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O322" t="n">
-        <v>0.09396602059351361</v>
+        <v>0.09144190014673764</v>
       </c>
       <c r="P322" t="n">
-        <v>-0.1092485021989325</v>
+        <v>-0.1117199107397464</v>
       </c>
       <c r="Q322" t="n">
-        <v>2.24569081795646</v>
+        <v>2.250194261323694</v>
       </c>
     </row>
     <row r="323">
@@ -19506,16 +19506,16 @@
         <v>2.03617404199618</v>
       </c>
       <c r="N323" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O323" t="n">
-        <v>0.09519309724943373</v>
+        <v>0.09235922125453519</v>
       </c>
       <c r="P323" t="n">
-        <v>-0.06669429906923226</v>
+        <v>-0.08118154330069201</v>
       </c>
       <c r="Q323" t="n">
-        <v>2.502355247147386</v>
+        <v>2.464004906383531</v>
       </c>
     </row>
     <row r="324">
@@ -19565,16 +19565,16 @@
         <v>1.5</v>
       </c>
       <c r="N324" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798103</v>
       </c>
       <c r="O324" t="n">
-        <v>0.0348337177803289</v>
+        <v>0.03064978097103578</v>
       </c>
       <c r="P324" t="n">
-        <v>0.06957795496556837</v>
+        <v>0.05590864336816269</v>
       </c>
       <c r="Q324" t="n">
-        <v>2.388989410524126</v>
+        <v>2.328895314055268</v>
       </c>
     </row>
     <row r="325">
@@ -19624,16 +19624,16 @@
         <v>1.583864174784634</v>
       </c>
       <c r="N325" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O325" t="n">
-        <v>0.1058443659343807</v>
+        <v>0.103218866336261</v>
       </c>
       <c r="P325" t="n">
-        <v>-0.09111698747273146</v>
+        <v>-0.1053967727551306</v>
       </c>
       <c r="Q325" t="n">
-        <v>2.553116449031327</v>
+        <v>2.508253456922772</v>
       </c>
     </row>
     <row r="326">
@@ -19683,16 +19683,16 @@
         <v>1.426911848121309</v>
       </c>
       <c r="N326" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O326" t="n">
-        <v>0.0413200483217154</v>
+        <v>0.03764187993692965</v>
       </c>
       <c r="P326" t="n">
-        <v>0.1118457724794293</v>
+        <v>0.1001808134153396</v>
       </c>
       <c r="Q326" t="n">
-        <v>2.264006452365127</v>
+        <v>2.23076509519476</v>
       </c>
     </row>
     <row r="327">
@@ -19742,16 +19742,16 @@
         <v>1.565151079672559</v>
       </c>
       <c r="N327" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O327" t="n">
-        <v>0.07086010504548078</v>
+        <v>0.06731119879512749</v>
       </c>
       <c r="P327" t="n">
-        <v>-0.06632045277321638</v>
+        <v>-0.07808819574551934</v>
       </c>
       <c r="Q327" t="n">
-        <v>2.494343649263989</v>
+        <v>2.436990680219163</v>
       </c>
     </row>
     <row r="328">
@@ -19801,16 +19801,16 @@
         <v>1.870213651501798</v>
       </c>
       <c r="N328" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O328" t="n">
-        <v>0.06051028135161576</v>
+        <v>0.05696172826990827</v>
       </c>
       <c r="P328" t="n">
-        <v>-0.001374194618542934</v>
+        <v>-0.0126363053214873</v>
       </c>
       <c r="Q328" t="n">
-        <v>2.386398561378112</v>
+        <v>2.343651788244547</v>
       </c>
     </row>
     <row r="329">
@@ -19860,16 +19860,16 @@
         <v>2.073549511692321</v>
       </c>
       <c r="N329" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O329" t="n">
-        <v>0.03337677273870372</v>
+        <v>0.02961493845092637</v>
       </c>
       <c r="P329" t="n">
-        <v>0.1523050726922673</v>
+        <v>0.1391811830612237</v>
       </c>
       <c r="Q329" t="n">
-        <v>2.204173192724198</v>
+        <v>2.183060395492196</v>
       </c>
     </row>
     <row r="330">
@@ -19919,16 +19919,16 @@
         <v>2.054960549259019</v>
       </c>
       <c r="N330" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O330" t="n">
-        <v>0.06906750910525093</v>
+        <v>0.06555347493069949</v>
       </c>
       <c r="P330" t="n">
-        <v>-0.0833456804017654</v>
+        <v>-0.09135867058312915</v>
       </c>
       <c r="Q330" t="n">
-        <v>2.419521039002565</v>
+        <v>2.37386714427772</v>
       </c>
     </row>
     <row r="331">
@@ -19978,16 +19978,16 @@
         <v>1.555123876398559</v>
       </c>
       <c r="N331" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798132</v>
       </c>
       <c r="O331" t="n">
-        <v>0.1476823333473781</v>
+        <v>0.1467665944193985</v>
       </c>
       <c r="P331" t="n">
-        <v>-0.2363821612912956</v>
+        <v>-0.2274256228343425</v>
       </c>
       <c r="Q331" t="n">
-        <v>2.140162486323764</v>
+        <v>2.18579015213187</v>
       </c>
     </row>
     <row r="332">
@@ -20037,16 +20037,16 @@
         <v>1.894058663596711</v>
       </c>
       <c r="N332" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O332" t="n">
-        <v>0.1574888530630932</v>
+        <v>0.1564369283159148</v>
       </c>
       <c r="P332" t="n">
-        <v>-0.2780927990965585</v>
+        <v>-0.2742557966969215</v>
       </c>
       <c r="Q332" t="n">
-        <v>2.351983375455335</v>
+        <v>2.363291846503522</v>
       </c>
     </row>
     <row r="333">
@@ -20096,16 +20096,16 @@
         <v>1.663326191145043</v>
       </c>
       <c r="N333" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O333" t="n">
-        <v>0.1228700579911459</v>
+        <v>0.1211883214339997</v>
       </c>
       <c r="P333" t="n">
-        <v>-0.1862513441787152</v>
+        <v>-0.1807678224784717</v>
       </c>
       <c r="Q333" t="n">
-        <v>2.211881988217485</v>
+        <v>2.226958710643435</v>
       </c>
     </row>
     <row r="334">
@@ -20155,16 +20155,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N334" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798135</v>
       </c>
       <c r="O334" t="n">
-        <v>0.1394643245792033</v>
+        <v>0.1378378660174092</v>
       </c>
       <c r="P334" t="n">
-        <v>-0.3609832551200459</v>
+        <v>-0.348951591396927</v>
       </c>
       <c r="Q334" t="n">
-        <v>2.246887578408782</v>
+        <v>2.266898119456398</v>
       </c>
     </row>
     <row r="335">
@@ -20214,16 +20214,16 @@
         <v>1.5</v>
       </c>
       <c r="N335" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798134</v>
       </c>
       <c r="O335" t="n">
-        <v>0.1550240204965514</v>
+        <v>0.1541480413502138</v>
       </c>
       <c r="P335" t="n">
-        <v>-0.327087817839306</v>
+        <v>-0.3119748725283357</v>
       </c>
       <c r="Q335" t="n">
-        <v>2.151908633580072</v>
+        <v>2.192065209428223</v>
       </c>
     </row>
     <row r="336">
@@ -20273,16 +20273,16 @@
         <v>1.628839623495565</v>
       </c>
       <c r="N336" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798124</v>
       </c>
       <c r="O336" t="n">
-        <v>0.1301008393736136</v>
+        <v>0.1291832620210709</v>
       </c>
       <c r="P336" t="n">
-        <v>-0.04222200403521467</v>
+        <v>-0.04104650701597098</v>
       </c>
       <c r="Q336" t="n">
-        <v>2.064934510146336</v>
+        <v>2.11810953485007</v>
       </c>
     </row>
     <row r="337">
@@ -20332,16 +20332,16 @@
         <v>2.252950313514092</v>
       </c>
       <c r="N337" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O337" t="n">
-        <v>0.1108607904801764</v>
+        <v>0.1090471738359224</v>
       </c>
       <c r="P337" t="n">
-        <v>-0.08772746723163594</v>
+        <v>-0.08807204686700085</v>
       </c>
       <c r="Q337" t="n">
-        <v>2.176714792296188</v>
+        <v>2.199535227024476</v>
       </c>
     </row>
     <row r="338">
@@ -20391,16 +20391,16 @@
         <v>1.500000000000001</v>
       </c>
       <c r="N338" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O338" t="n">
-        <v>0.08404397073697539</v>
+        <v>0.08142841126804307</v>
       </c>
       <c r="P338" t="n">
-        <v>0.02380397893306715</v>
+        <v>0.01407160049146806</v>
       </c>
       <c r="Q338" t="n">
-        <v>2.307437869118344</v>
+        <v>2.290722169007513</v>
       </c>
     </row>
     <row r="339">
@@ -20450,16 +20450,16 @@
         <v>1.709080162100428</v>
       </c>
       <c r="N339" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798107</v>
       </c>
       <c r="O339" t="n">
-        <v>0.113232379594526</v>
+        <v>0.1110450708966058</v>
       </c>
       <c r="P339" t="n">
-        <v>-0.1144521334537795</v>
+        <v>-0.1195316557263291</v>
       </c>
       <c r="Q339" t="n">
-        <v>2.437487428321865</v>
+        <v>2.403785422076334</v>
       </c>
     </row>
     <row r="340">
@@ -20509,16 +20509,16 @@
         <v>1.471697722182734</v>
       </c>
       <c r="N340" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798108</v>
       </c>
       <c r="O340" t="n">
-        <v>0.109706857069377</v>
+        <v>0.1074396657948744</v>
       </c>
       <c r="P340" t="n">
-        <v>-0.1236083668470895</v>
+        <v>-0.126741131536197</v>
       </c>
       <c r="Q340" t="n">
-        <v>2.412087550288331</v>
+        <v>2.379194072843668</v>
       </c>
     </row>
     <row r="341">
@@ -20568,16 +20568,16 @@
         <v>1.301615397683934</v>
       </c>
       <c r="N341" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798109</v>
       </c>
       <c r="O341" t="n">
-        <v>0.1028926427879289</v>
+        <v>0.1005428277362572</v>
       </c>
       <c r="P341" t="n">
-        <v>-0.1056120762270187</v>
+        <v>-0.1073944788156243</v>
       </c>
       <c r="Q341" t="n">
-        <v>2.361953100779624</v>
+        <v>2.333108825126924</v>
       </c>
     </row>
     <row r="342">
@@ -20627,16 +20627,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N342" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O342" t="n">
-        <v>0.06257458066000346</v>
+        <v>0.05869084597412449</v>
       </c>
       <c r="P342" t="n">
-        <v>-0.1202260200823388</v>
+        <v>-0.1258397623296483</v>
       </c>
       <c r="Q342" t="n">
-        <v>2.50027371933092</v>
+        <v>2.425232400290969</v>
       </c>
     </row>
     <row r="343">
@@ -20686,16 +20686,16 @@
         <v>1.481653463479068</v>
       </c>
       <c r="N343" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798111</v>
       </c>
       <c r="O343" t="n">
-        <v>0.09280079949577313</v>
+        <v>0.09047854759883707</v>
       </c>
       <c r="P343" t="n">
-        <v>-0.07970658934114964</v>
+        <v>-0.07530810566921374</v>
       </c>
       <c r="Q343" t="n">
-        <v>2.21124871208687</v>
+        <v>2.197314448232442</v>
       </c>
     </row>
     <row r="344">
@@ -20745,16 +20745,16 @@
         <v>2.189568379381487</v>
       </c>
       <c r="N344" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O344" t="n">
-        <v>0.1097087058697696</v>
+        <v>0.1074016620711151</v>
       </c>
       <c r="P344" t="n">
-        <v>-0.1839604120956055</v>
+        <v>-0.181429934589092</v>
       </c>
       <c r="Q344" t="n">
-        <v>2.363585312658692</v>
+        <v>2.336203166961929</v>
       </c>
     </row>
     <row r="345">
@@ -20804,16 +20804,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="N345" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O345" t="n">
-        <v>0.1215926282448702</v>
+        <v>0.1202064417441876</v>
       </c>
       <c r="P345" t="n">
-        <v>-0.01668316059152299</v>
+        <v>-0.0226257907010651</v>
       </c>
       <c r="Q345" t="n">
-        <v>2.211975695323551</v>
+        <v>2.236600352576774</v>
       </c>
     </row>
     <row r="346">
@@ -20863,16 +20863,16 @@
         <v>3.157583547837752</v>
       </c>
       <c r="N346" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O346" t="n">
-        <v>0.07256737088553136</v>
+        <v>0.06979092352364535</v>
       </c>
       <c r="P346" t="n">
-        <v>0.02931398526736886</v>
+        <v>0.02399542675679144</v>
       </c>
       <c r="Q346" t="n">
-        <v>2.205159090816502</v>
+        <v>2.197535469209794</v>
       </c>
     </row>
     <row r="347">
@@ -20922,16 +20922,16 @@
         <v>2.102476145195948</v>
       </c>
       <c r="N347" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O347" t="n">
-        <v>0.07078732830497818</v>
+        <v>0.06813579861845727</v>
       </c>
       <c r="P347" t="n">
-        <v>0.06200143327531016</v>
+        <v>0.05729867571558621</v>
       </c>
       <c r="Q347" t="n">
-        <v>2.141291061200084</v>
+        <v>2.144369040002573</v>
       </c>
     </row>
     <row r="348">
@@ -20981,16 +20981,16 @@
         <v>1.51006629261065</v>
       </c>
       <c r="N348" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O348" t="n">
-        <v>0.07444017001855069</v>
+        <v>0.07179082107866021</v>
       </c>
       <c r="P348" t="n">
-        <v>0.03410101121631195</v>
+        <v>0.02968212890085618</v>
       </c>
       <c r="Q348" t="n">
-        <v>2.170304996480528</v>
+        <v>2.170223033701205</v>
       </c>
     </row>
     <row r="349">
@@ -21040,16 +21040,16 @@
         <v>1.737157124074886</v>
       </c>
       <c r="N349" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O349" t="n">
-        <v>0.08132283401541185</v>
+        <v>0.078713367021266</v>
       </c>
       <c r="P349" t="n">
-        <v>-0.001766537922740535</v>
+        <v>-0.006749951077834715</v>
       </c>
       <c r="Q349" t="n">
-        <v>2.222948364455721</v>
+        <v>2.21843747841531</v>
       </c>
     </row>
     <row r="350">
@@ -21099,16 +21099,16 @@
         <v>1.609331871613779</v>
       </c>
       <c r="N350" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798115</v>
       </c>
       <c r="O350" t="n">
-        <v>0.07257864377570593</v>
+        <v>0.07019351742108645</v>
       </c>
       <c r="P350" t="n">
-        <v>0.07730793111981651</v>
+        <v>0.07609469575822612</v>
       </c>
       <c r="Q350" t="n">
-        <v>2.045272471583744</v>
+        <v>2.063671408796984</v>
       </c>
     </row>
     <row r="351">
@@ -21158,16 +21158,16 @@
         <v>2.086696089546653</v>
       </c>
       <c r="N351" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O351" t="n">
-        <v>0.0944904388660284</v>
+        <v>0.09202824391525331</v>
       </c>
       <c r="P351" t="n">
-        <v>-0.09175604096493216</v>
+        <v>-0.0931571390735265</v>
       </c>
       <c r="Q351" t="n">
-        <v>2.268319594192599</v>
+        <v>2.259747169309268</v>
       </c>
     </row>
     <row r="352">
@@ -21217,16 +21217,16 @@
         <v>2.067200464585717</v>
       </c>
       <c r="N352" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O352" t="n">
-        <v>0.05063919948363203</v>
+        <v>0.04759501276196459</v>
       </c>
       <c r="P352" t="n">
-        <v>0.1480198929254124</v>
+        <v>0.1359271974637143</v>
       </c>
       <c r="Q352" t="n">
-        <v>2.052799869339303</v>
+        <v>2.082927484721811</v>
       </c>
     </row>
     <row r="353">
@@ -21276,16 +21276,16 @@
         <v>3.018987254263033</v>
       </c>
       <c r="N353" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O353" t="n">
-        <v>0.06700368636595594</v>
+        <v>0.06438735299192822</v>
       </c>
       <c r="P353" t="n">
-        <v>0.1157822691593872</v>
+        <v>0.1052657122036901</v>
       </c>
       <c r="Q353" t="n">
-        <v>2.066806574028035</v>
+        <v>2.100976574838371</v>
       </c>
     </row>
     <row r="354">
@@ -21335,16 +21335,16 @@
         <v>1.581998264970821</v>
       </c>
       <c r="N354" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O354" t="n">
-        <v>0.06692142157728741</v>
+        <v>0.06430379274122479</v>
       </c>
       <c r="P354" t="n">
-        <v>0.1026938865548755</v>
+        <v>0.09410441933241366</v>
       </c>
       <c r="Q354" t="n">
-        <v>2.057378593084144</v>
+        <v>2.090011993723981</v>
       </c>
     </row>
     <row r="355">
@@ -21394,16 +21394,16 @@
         <v>1.694368995274842</v>
       </c>
       <c r="N355" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O355" t="n">
-        <v>0.08215125784505432</v>
+        <v>0.07969433771331988</v>
       </c>
       <c r="P355" t="n">
-        <v>0.0193508097707577</v>
+        <v>0.012576201715311</v>
       </c>
       <c r="Q355" t="n">
-        <v>2.141956560256538</v>
+        <v>2.164663589214676</v>
       </c>
     </row>
     <row r="356">
@@ -21453,16 +21453,16 @@
         <v>1.332008821881291</v>
       </c>
       <c r="N356" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798123</v>
       </c>
       <c r="O356" t="n">
-        <v>0.09174837286036314</v>
+        <v>0.08970856614753925</v>
       </c>
       <c r="P356" t="n">
-        <v>0.0128051658652337</v>
+        <v>0.01010328135665721</v>
       </c>
       <c r="Q356" t="n">
-        <v>2.080270543681636</v>
+        <v>2.11359047566525</v>
       </c>
     </row>
     <row r="357">
@@ -21512,16 +21512,16 @@
         <v>2.134687693561835</v>
       </c>
       <c r="N357" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798122</v>
       </c>
       <c r="O357" t="n">
-        <v>0.09542200617198104</v>
+        <v>0.09304940651983132</v>
       </c>
       <c r="P357" t="n">
-        <v>-0.09061662777983043</v>
+        <v>-0.09229649703469223</v>
       </c>
       <c r="Q357" t="n">
-        <v>2.213554590580037</v>
+        <v>2.222621379726648</v>
       </c>
     </row>
     <row r="358">
@@ -21571,16 +21571,16 @@
         <v>1.5</v>
       </c>
       <c r="N358" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O358" t="n">
-        <v>0.05582975697305392</v>
+        <v>0.05327254793354758</v>
       </c>
       <c r="P358" t="n">
-        <v>0.1796166025301192</v>
+        <v>0.1738591864208551</v>
       </c>
       <c r="Q358" t="n">
-        <v>1.940778790516999</v>
+        <v>1.980368424046839</v>
       </c>
     </row>
     <row r="359">
@@ -21630,16 +21630,16 @@
         <v>1.728572074161355</v>
       </c>
       <c r="N359" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O359" t="n">
-        <v>0.143452323427133</v>
+        <v>0.1421464513545302</v>
       </c>
       <c r="P359" t="n">
-        <v>-0.2096241056226208</v>
+        <v>-0.2082128671500848</v>
       </c>
       <c r="Q359" t="n">
-        <v>2.335175693405401</v>
+        <v>2.34124316864603</v>
       </c>
     </row>
     <row r="360">
@@ -21689,16 +21689,16 @@
         <v>2.195854395639861</v>
       </c>
       <c r="N360" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O360" t="n">
-        <v>0.09076949478392714</v>
+        <v>0.08882144317516964</v>
       </c>
       <c r="P360" t="n">
-        <v>0.02770431571193507</v>
+        <v>0.02757214929540495</v>
       </c>
       <c r="Q360" t="n">
-        <v>2.048018862855928</v>
+        <v>2.07933386826379</v>
       </c>
     </row>
     <row r="361">
@@ -21748,16 +21748,16 @@
         <v>1.27266792275657</v>
       </c>
       <c r="N361" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O361" t="n">
-        <v>0.09731131213716088</v>
+        <v>0.09546760820416905</v>
       </c>
       <c r="P361" t="n">
-        <v>-0.01017364496368448</v>
+        <v>-0.008262732795071281</v>
       </c>
       <c r="Q361" t="n">
-        <v>2.065116128224466</v>
+        <v>2.094010225628295</v>
       </c>
     </row>
     <row r="362">
@@ -21807,16 +21807,16 @@
         <v>1.482990703787508</v>
       </c>
       <c r="N362" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O362" t="n">
-        <v>0.1348055832587041</v>
+        <v>0.1333209746265819</v>
       </c>
       <c r="P362" t="n">
-        <v>-0.2351578144139189</v>
+        <v>-0.2271987263263399</v>
       </c>
       <c r="Q362" t="n">
-        <v>2.274453517157185</v>
+        <v>2.276551399222868</v>
       </c>
     </row>
     <row r="363">
@@ -21866,16 +21866,16 @@
         <v>1.309338724366762</v>
       </c>
       <c r="N363" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O363" t="n">
-        <v>0.1503224408723096</v>
+        <v>0.1493255552353464</v>
       </c>
       <c r="P363" t="n">
-        <v>-0.2309020998975248</v>
+        <v>-0.2240687592231802</v>
       </c>
       <c r="Q363" t="n">
-        <v>2.272146116896443</v>
+        <v>2.28577471831405</v>
       </c>
     </row>
     <row r="364">
@@ -21925,16 +21925,16 @@
         <v>2.224517934906989</v>
       </c>
       <c r="N364" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O364" t="n">
-        <v>0.09950134074625011</v>
+        <v>0.0971833563021104</v>
       </c>
       <c r="P364" t="n">
-        <v>-0.1268144768025675</v>
+        <v>-0.1249847488746221</v>
       </c>
       <c r="Q364" t="n">
-        <v>2.231135453989573</v>
+        <v>2.231166179160964</v>
       </c>
     </row>
     <row r="365">
@@ -21984,16 +21984,16 @@
         <v>2.311125364129039</v>
       </c>
       <c r="N365" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O365" t="n">
-        <v>0.08796480005252146</v>
+        <v>0.08576735235647617</v>
       </c>
       <c r="P365" t="n">
-        <v>-0.007795272108787554</v>
+        <v>-0.007992833260523413</v>
       </c>
       <c r="Q365" t="n">
-        <v>2.093847036891725</v>
+        <v>2.116191726487538</v>
       </c>
     </row>
     <row r="366">
@@ -22043,16 +22043,16 @@
         <v>2.392278948236461</v>
       </c>
       <c r="N366" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O366" t="n">
-        <v>0.1255094717122676</v>
+        <v>0.1240216853439858</v>
       </c>
       <c r="P366" t="n">
-        <v>-0.1281096332712023</v>
+        <v>-0.1264829600189419</v>
       </c>
       <c r="Q366" t="n">
-        <v>2.216902573303074</v>
+        <v>2.23508714664267</v>
       </c>
     </row>
     <row r="367">
@@ -22102,16 +22102,16 @@
         <v>3.168892690376738</v>
       </c>
       <c r="N367" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O367" t="n">
-        <v>0.1093397400780223</v>
+        <v>0.1072091537572864</v>
       </c>
       <c r="P367" t="n">
-        <v>-0.171667838679839</v>
+        <v>-0.1676217989672539</v>
       </c>
       <c r="Q367" t="n">
-        <v>2.250481425401741</v>
+        <v>2.249645937849194</v>
       </c>
     </row>
     <row r="368">
@@ -22161,16 +22161,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="N368" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O368" t="n">
-        <v>0.05826247627902656</v>
+        <v>0.05508639763889223</v>
       </c>
       <c r="P368" t="n">
-        <v>0.0116768123677248</v>
+        <v>0.008467544143270653</v>
       </c>
       <c r="Q368" t="n">
-        <v>2.140274179548034</v>
+        <v>2.140791106297804</v>
       </c>
     </row>
     <row r="369">
@@ -22220,16 +22220,16 @@
         <v>1.5</v>
       </c>
       <c r="N369" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O369" t="n">
-        <v>0.08506661225234505</v>
+        <v>0.08247580811539196</v>
       </c>
       <c r="P369" t="n">
-        <v>-0.08326077775274701</v>
+        <v>-0.08162846144197126</v>
       </c>
       <c r="Q369" t="n">
-        <v>2.183615208208782</v>
+        <v>2.184057113252673</v>
       </c>
     </row>
     <row r="370">
@@ -22279,16 +22279,16 @@
         <v>2.011110609254798</v>
       </c>
       <c r="N370" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798121</v>
       </c>
       <c r="O370" t="n">
-        <v>0.1074491535825944</v>
+        <v>0.1055070432372128</v>
       </c>
       <c r="P370" t="n">
-        <v>-0.120845130837542</v>
+        <v>-0.1166247048691852</v>
       </c>
       <c r="Q370" t="n">
-        <v>2.169924507223003</v>
+        <v>2.183192538560665</v>
       </c>
     </row>
     <row r="371">
@@ -22338,16 +22338,16 @@
         <v>2.298063698297935</v>
       </c>
       <c r="N371" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O371" t="n">
-        <v>0.04669021095536932</v>
+        <v>0.0434454292653696</v>
       </c>
       <c r="P371" t="n">
-        <v>0.1405281109267926</v>
+        <v>0.1308419668025172</v>
       </c>
       <c r="Q371" t="n">
-        <v>2.134687196184346</v>
+        <v>2.131405590535665</v>
       </c>
     </row>
     <row r="372">
@@ -22397,16 +22397,16 @@
         <v>2.14521553204206</v>
       </c>
       <c r="N372" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798112</v>
       </c>
       <c r="O372" t="n">
-        <v>0.07115768810910672</v>
+        <v>0.0681702440746938</v>
       </c>
       <c r="P372" t="n">
-        <v>-0.01100893361850884</v>
+        <v>-0.01567744220004338</v>
       </c>
       <c r="Q372" t="n">
-        <v>2.253092387061591</v>
+        <v>2.234952659564528</v>
       </c>
     </row>
     <row r="373">
@@ -22456,16 +22456,16 @@
         <v>2.815473210689341</v>
       </c>
       <c r="N373" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O373" t="n">
-        <v>0.07138020276005383</v>
+        <v>0.06866231588632836</v>
       </c>
       <c r="P373" t="n">
-        <v>0.02860514717780718</v>
+        <v>0.02587788794172656</v>
       </c>
       <c r="Q373" t="n">
-        <v>2.154290510627739</v>
+        <v>2.152684209907655</v>
       </c>
     </row>
     <row r="374">
@@ -22515,16 +22515,16 @@
         <v>1.992906231796149</v>
       </c>
       <c r="N374" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798113</v>
       </c>
       <c r="O374" t="n">
-        <v>0.07202291059894431</v>
+        <v>0.06869288761610404</v>
       </c>
       <c r="P374" t="n">
-        <v>-0.1042589373034466</v>
+        <v>-0.1072362049309323</v>
       </c>
       <c r="Q374" t="n">
-        <v>2.353140487767134</v>
+        <v>2.31534402308782</v>
       </c>
     </row>
     <row r="375">
@@ -22574,16 +22574,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="N375" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798105</v>
       </c>
       <c r="O375" t="n">
-        <v>0.05999836063527499</v>
+        <v>0.056341212556616</v>
       </c>
       <c r="P375" t="n">
-        <v>-0.0698450789699214</v>
+        <v>-0.07336033927856349</v>
       </c>
       <c r="Q375" t="n">
-        <v>2.392530469541893</v>
+        <v>2.332970195707726</v>
       </c>
     </row>
     <row r="376">
@@ -22633,16 +22633,16 @@
         <v>1.795346708229094</v>
       </c>
       <c r="N376" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O376" t="n">
-        <v>0.1035053840043953</v>
+        <v>0.101063658964605</v>
       </c>
       <c r="P376" t="n">
-        <v>-0.1677665455967577</v>
+        <v>-0.1659774229221526</v>
       </c>
       <c r="Q376" t="n">
-        <v>2.342464987363327</v>
+        <v>2.318112164618228</v>
       </c>
     </row>
     <row r="377">
@@ -22692,16 +22692,16 @@
         <v>2.101860250809634</v>
       </c>
       <c r="N377" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O377" t="n">
-        <v>0.08005533321912142</v>
+        <v>0.07736958107572824</v>
       </c>
       <c r="P377" t="n">
-        <v>-0.03358779659522462</v>
+        <v>-0.03641802721337441</v>
       </c>
       <c r="Q377" t="n">
-        <v>2.199066222474919</v>
+        <v>2.199137303718171</v>
       </c>
     </row>
     <row r="378">
@@ -22751,16 +22751,16 @@
         <v>1.532865872683723</v>
       </c>
       <c r="N378" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O378" t="n">
-        <v>0.1052854008574365</v>
+        <v>0.1029815955873243</v>
       </c>
       <c r="P378" t="n">
-        <v>-0.1724911071583968</v>
+        <v>-0.1689440316991948</v>
       </c>
       <c r="Q378" t="n">
-        <v>2.281524463623112</v>
+        <v>2.271181658195311</v>
       </c>
     </row>
     <row r="379">
@@ -22810,16 +22810,16 @@
         <v>2.815720396193842</v>
       </c>
       <c r="N379" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O379" t="n">
-        <v>0.1034510079098297</v>
+        <v>0.101439707837572</v>
       </c>
       <c r="P379" t="n">
-        <v>-0.104476220638749</v>
+        <v>-0.1001944286318164</v>
       </c>
       <c r="Q379" t="n">
-        <v>2.164509811205726</v>
+        <v>2.174454291102265</v>
       </c>
     </row>
     <row r="380">
@@ -22869,16 +22869,16 @@
         <v>1.739304231923645</v>
       </c>
       <c r="N380" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O380" t="n">
-        <v>0.1260237933636908</v>
+        <v>0.1240676440192933</v>
       </c>
       <c r="P380" t="n">
-        <v>-0.2706361247974839</v>
+        <v>-0.26317537165193</v>
       </c>
       <c r="Q380" t="n">
-        <v>2.34400773598878</v>
+        <v>2.328497548056033</v>
       </c>
     </row>
     <row r="381">
@@ -22928,16 +22928,16 @@
         <v>1.590884813525737</v>
       </c>
       <c r="N381" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O381" t="n">
-        <v>0.1280167011889551</v>
+        <v>0.12614575739148</v>
       </c>
       <c r="P381" t="n">
-        <v>-0.2676393339978259</v>
+        <v>-0.2600362377398173</v>
       </c>
       <c r="Q381" t="n">
-        <v>2.334323106739624</v>
+        <v>2.321728094215505</v>
       </c>
     </row>
     <row r="382">
@@ -22987,16 +22987,16 @@
         <v>1.5</v>
       </c>
       <c r="N382" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O382" t="n">
-        <v>0.01801295303066806</v>
+        <v>0.01465319292529338</v>
       </c>
       <c r="P382" t="n">
-        <v>0.3564396568199631</v>
+        <v>0.339939325818841</v>
       </c>
       <c r="Q382" t="n">
-        <v>1.920318842633943</v>
+        <v>1.953854476222886</v>
       </c>
     </row>
     <row r="383">
@@ -23007,7 +23007,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -23016,46 +23016,46 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0.01095890410958904</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E383" t="n">
-        <v>111992.6742273136</v>
+        <v>111913.636236021</v>
       </c>
       <c r="F383" t="n">
-        <v>0.04413863204402541</v>
+        <v>0.0150794376495774</v>
       </c>
       <c r="G383" t="n">
-        <v>0.1239319196069358</v>
+        <v>0.153530327157326</v>
       </c>
       <c r="H383" t="n">
-        <v>-0.3799280037148337</v>
+        <v>-0.8414873904767076</v>
       </c>
       <c r="I383" t="n">
-        <v>4.67882136465155</v>
+        <v>7.011937907066979</v>
       </c>
       <c r="J383" t="n">
-        <v>0.03844845610568442</v>
+        <v>0.3779298801345128</v>
       </c>
       <c r="K383" t="n">
-        <v>0.01033204899200667</v>
+        <v>0.08732206993011483</v>
       </c>
       <c r="L383" t="n">
-        <v>0.02964126085934176</v>
+        <v>-0.3326748274291247</v>
       </c>
       <c r="M383" t="n">
-        <v>1.252041615773261</v>
+        <v>1.552525783804963</v>
       </c>
       <c r="N383" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O383" t="n">
-        <v>0.04879144339467376</v>
+        <v>0.09061734672318518</v>
       </c>
       <c r="P383" t="n">
-        <v>0.08755672204855999</v>
+        <v>-0.05558233930123804</v>
       </c>
       <c r="Q383" t="n">
-        <v>2.158860720820055</v>
+        <v>2.195930940879299</v>
       </c>
     </row>
     <row r="384">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -23075,46 +23075,46 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0.0136986301369863</v>
+        <v>0.01095890410958904</v>
       </c>
       <c r="E384" t="n">
-        <v>111922.032564998</v>
+        <v>111992.6742273136</v>
       </c>
       <c r="F384" t="n">
-        <v>0.03152131171749281</v>
+        <v>0.04413863204402541</v>
       </c>
       <c r="G384" t="n">
-        <v>0.1428945784418704</v>
+        <v>0.1239319196069358</v>
       </c>
       <c r="H384" t="n">
-        <v>-0.7851727356124144</v>
+        <v>-0.3799280037148337</v>
       </c>
       <c r="I384" t="n">
-        <v>6.075221095169978</v>
+        <v>4.67882136465155</v>
       </c>
       <c r="J384" t="n">
-        <v>0.1225871604057971</v>
+        <v>0.03844845610568442</v>
       </c>
       <c r="K384" t="n">
-        <v>0.03658292543881253</v>
+        <v>0.01033204899200667</v>
       </c>
       <c r="L384" t="n">
-        <v>0.7269108226853095</v>
+        <v>0.02964126085934176</v>
       </c>
       <c r="M384" t="n">
-        <v>2.283258046995905</v>
+        <v>1.252041615773261</v>
       </c>
       <c r="N384" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798114</v>
       </c>
       <c r="O384" t="n">
-        <v>0.0744144486699935</v>
+        <v>0.04544911707464816</v>
       </c>
       <c r="P384" t="n">
-        <v>0.02552391278403557</v>
+        <v>0.07944109094872874</v>
       </c>
       <c r="Q384" t="n">
-        <v>2.136365326087795</v>
+        <v>2.15294802729627</v>
       </c>
     </row>
     <row r="385">
@@ -23125,7 +23125,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -23134,46 +23134,46 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0.01643835616438356</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E385" t="n">
-        <v>111949.0290608311</v>
+        <v>111922.032564998</v>
       </c>
       <c r="F385" t="n">
-        <v>0.02820439540375154</v>
+        <v>0.03152131171749281</v>
       </c>
       <c r="G385" t="n">
-        <v>0.1567903892481256</v>
+        <v>0.1428945784418704</v>
       </c>
       <c r="H385" t="n">
-        <v>-0.6609413669389544</v>
+        <v>-0.7851727356124144</v>
       </c>
       <c r="I385" t="n">
-        <v>5.829481920231169</v>
+        <v>6.075221095169978</v>
       </c>
       <c r="J385" t="n">
-        <v>0.1857726821611913</v>
+        <v>0.1225871604057971</v>
       </c>
       <c r="K385" t="n">
-        <v>0.05044782199651743</v>
+        <v>0.03658292543881253</v>
       </c>
       <c r="L385" t="n">
-        <v>0.3093338362019623</v>
+        <v>0.7269108226853095</v>
       </c>
       <c r="M385" t="n">
-        <v>1.524200376593016</v>
+        <v>2.283258046995905</v>
       </c>
       <c r="N385" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O385" t="n">
-        <v>0.08791343182455197</v>
+        <v>0.07180342724029883</v>
       </c>
       <c r="P385" t="n">
-        <v>-0.08675858512115836</v>
+        <v>0.02282392340672999</v>
       </c>
       <c r="Q385" t="n">
-        <v>2.242412944493978</v>
+        <v>2.14207315782959</v>
       </c>
     </row>
     <row r="386">
@@ -23184,7 +23184,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -23193,57 +23193,57 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0.01917808219178082</v>
+        <v>0.01643835616438356</v>
       </c>
       <c r="E386" t="n">
-        <v>111895.3534178812</v>
+        <v>111949.0290608311</v>
       </c>
       <c r="F386" t="n">
-        <v>0.02121193946449751</v>
+        <v>0.02820439540375154</v>
       </c>
       <c r="G386" t="n">
-        <v>0.1562058505465646</v>
+        <v>0.1567903892481256</v>
       </c>
       <c r="H386" t="n">
-        <v>-0.7395612067214531</v>
+        <v>-0.6609413669389544</v>
       </c>
       <c r="I386" t="n">
-        <v>5.425419922712988</v>
+        <v>5.829481920231169</v>
       </c>
       <c r="J386" t="n">
-        <v>0.2516799863301211</v>
+        <v>0.1857726821611913</v>
       </c>
       <c r="K386" t="n">
-        <v>0.0693036267396242</v>
+        <v>0.05044782199651743</v>
       </c>
       <c r="L386" t="n">
-        <v>0.166800521123699</v>
+        <v>0.3093338362019623</v>
       </c>
       <c r="M386" t="n">
-        <v>1.492689794117197</v>
+        <v>1.524200376593016</v>
       </c>
       <c r="N386" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798116</v>
       </c>
       <c r="O386" t="n">
-        <v>0.0836695066593706</v>
+        <v>0.08531368564772779</v>
       </c>
       <c r="P386" t="n">
-        <v>-0.0526974574074128</v>
+        <v>-0.08653461428162526</v>
       </c>
       <c r="Q386" t="n">
-        <v>2.179711445071954</v>
+        <v>2.231993009025201</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -23252,46 +23252,46 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0.005479452054794521</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="E387" t="n">
-        <v>112515.9762390781</v>
+        <v>111895.3534178812</v>
       </c>
       <c r="F387" t="n">
-        <v>0.01323934363543634</v>
+        <v>0.02121193946449751</v>
       </c>
       <c r="G387" t="n">
-        <v>0.1292365718580022</v>
+        <v>0.1562058505465646</v>
       </c>
       <c r="H387" t="n">
-        <v>-0.2941812139323229</v>
+        <v>-0.7395612067214531</v>
       </c>
       <c r="I387" t="n">
-        <v>3.649714375147955</v>
+        <v>5.425419922712988</v>
       </c>
       <c r="J387" t="n">
-        <v>0.1187477539713453</v>
+        <v>0.2516799863301211</v>
       </c>
       <c r="K387" t="n">
-        <v>0.03078058020598393</v>
+        <v>0.0693036267396242</v>
       </c>
       <c r="L387" t="n">
-        <v>0</v>
+        <v>0.166800521123699</v>
       </c>
       <c r="M387" t="n">
-        <v>1</v>
+        <v>1.492689794117197</v>
       </c>
       <c r="N387" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798117</v>
       </c>
       <c r="O387" t="n">
-        <v>0.04930018626341287</v>
+        <v>0.08111821286370022</v>
       </c>
       <c r="P387" t="n">
-        <v>0.06143817556022294</v>
+        <v>-0.05195390547134227</v>
       </c>
       <c r="Q387" t="n">
-        <v>2.136906082543254</v>
+        <v>2.178508552999784</v>
       </c>
     </row>
     <row r="388">
@@ -23302,7 +23302,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -23311,46 +23311,46 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>0.00821917808219178</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="E388" t="n">
-        <v>112453.5870632726</v>
+        <v>112482.3875728318</v>
       </c>
       <c r="F388" t="n">
-        <v>0.001925339802519785</v>
+        <v>-0.002507994126054419</v>
       </c>
       <c r="G388" t="n">
-        <v>0.1471464165632581</v>
+        <v>0.1443621796361534</v>
       </c>
       <c r="H388" t="n">
-        <v>-0.6512128457295741</v>
+        <v>-0.7780749770495108</v>
       </c>
       <c r="I388" t="n">
-        <v>4.665193692170698</v>
+        <v>6.288697433255122</v>
       </c>
       <c r="J388" t="n">
-        <v>0.1914151756656277</v>
+        <v>0.368443878262713</v>
       </c>
       <c r="K388" t="n">
-        <v>0.03108149515537862</v>
+        <v>0.03920614569937778</v>
       </c>
       <c r="L388" t="n">
-        <v>-0.6763282335868304</v>
+        <v>-1.127910942023814</v>
       </c>
       <c r="M388" t="n">
-        <v>1.5</v>
+        <v>3.329723141697085</v>
       </c>
       <c r="N388" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O388" t="n">
-        <v>0.07135418495518119</v>
+        <v>0.07788908986495501</v>
       </c>
       <c r="P388" t="n">
-        <v>0.005059521237962938</v>
+        <v>0.005923538673673109</v>
       </c>
       <c r="Q388" t="n">
-        <v>2.112834635422992</v>
+        <v>2.133798187391819</v>
       </c>
     </row>
     <row r="389">
@@ -23361,7 +23361,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -23370,57 +23370,57 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0.01095890410958904</v>
+        <v>0.02191780821917808</v>
       </c>
       <c r="E389" t="n">
-        <v>112457.6135103974</v>
+        <v>112492.0220184911</v>
       </c>
       <c r="F389" t="n">
-        <v>-0.0002936800205633542</v>
+        <v>-0.002954982496032888</v>
       </c>
       <c r="G389" t="n">
-        <v>0.1543298320016014</v>
+        <v>0.141823251220435</v>
       </c>
       <c r="H389" t="n">
-        <v>-0.6487565508246312</v>
+        <v>-0.5007239429912972</v>
       </c>
       <c r="I389" t="n">
-        <v>4.764132664041259</v>
+        <v>5.450011004942664</v>
       </c>
       <c r="J389" t="n">
-        <v>0.2641047666141533</v>
+        <v>0.3802977549935186</v>
       </c>
       <c r="K389" t="n">
-        <v>0.03916245126332588</v>
+        <v>0.03528897824179948</v>
       </c>
       <c r="L389" t="n">
-        <v>-0.7172214601094596</v>
+        <v>-1.329203199933692</v>
       </c>
       <c r="M389" t="n">
-        <v>2.09969529306094</v>
+        <v>3.915931171864705</v>
       </c>
       <c r="N389" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.0504860935579812</v>
       </c>
       <c r="O389" t="n">
-        <v>0.07939615781071618</v>
+        <v>0.07189010443113958</v>
       </c>
       <c r="P389" t="n">
-        <v>-0.04429568185942273</v>
+        <v>-0.02302791446310713</v>
       </c>
       <c r="Q389" t="n">
-        <v>2.151981728844408</v>
+        <v>2.183902189057504</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -23432,25 +23432,25 @@
         <v>0.005479452054794521</v>
       </c>
       <c r="E390" t="n">
-        <v>111666.5225405059</v>
+        <v>112515.9762390781</v>
       </c>
       <c r="F390" t="n">
-        <v>-0.05058030847475746</v>
+        <v>0.01323934363543634</v>
       </c>
       <c r="G390" t="n">
-        <v>0.164508674736923</v>
+        <v>0.1292365718580022</v>
       </c>
       <c r="H390" t="n">
-        <v>-0.6950933036113355</v>
+        <v>-0.2941812139323229</v>
       </c>
       <c r="I390" t="n">
-        <v>5.012956620614996</v>
+        <v>3.649714375147955</v>
       </c>
       <c r="J390" t="n">
-        <v>0.372167060167827</v>
+        <v>0.1187477539713453</v>
       </c>
       <c r="K390" t="n">
-        <v>0.0004528025084143649</v>
+        <v>0.03078058020598393</v>
       </c>
       <c r="L390" t="n">
         <v>0</v>
@@ -23459,27 +23459,27 @@
         <v>1</v>
       </c>
       <c r="N390" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798118</v>
       </c>
       <c r="O390" t="n">
-        <v>0.09475774213627899</v>
+        <v>0.04594437237992205</v>
       </c>
       <c r="P390" t="n">
-        <v>-0.105173346496493</v>
+        <v>0.05493782471890955</v>
       </c>
       <c r="Q390" t="n">
-        <v>2.136884452219334</v>
+        <v>2.136746997904062</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -23491,102 +23491,1341 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="E391" t="n">
-        <v>111832.5791653157</v>
+        <v>112453.5870632726</v>
       </c>
       <c r="F391" t="n">
-        <v>-0.02580327913082217</v>
+        <v>0.001925339802519785</v>
       </c>
       <c r="G391" t="n">
-        <v>0.1321951162532141</v>
+        <v>0.1471464165632581</v>
       </c>
       <c r="H391" t="n">
-        <v>-0.1376978415711794</v>
+        <v>-0.6512128457295741</v>
       </c>
       <c r="I391" t="n">
-        <v>3.261113816929032</v>
+        <v>4.665193692170698</v>
       </c>
       <c r="J391" t="n">
-        <v>0.4277346191916581</v>
+        <v>0.1914151756656277</v>
       </c>
       <c r="K391" t="n">
-        <v>0.006477375570676819</v>
+        <v>0.03108149515537862</v>
       </c>
       <c r="L391" t="n">
-        <v>0.5617269463841342</v>
+        <v>-0.6763282335868304</v>
       </c>
       <c r="M391" t="n">
         <v>1.5</v>
       </c>
       <c r="N391" t="n">
-        <v>-0.06579314222947109</v>
+        <v>-0.05048609355798119</v>
       </c>
       <c r="O391" t="n">
-        <v>0.05416542499326495</v>
+        <v>0.06863278801442618</v>
       </c>
       <c r="P391" t="n">
-        <v>0.01535654747937562</v>
+        <v>0.003774078543390014</v>
       </c>
       <c r="Q391" t="n">
-        <v>2.153094621259396</v>
+        <v>2.122718179552998</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E392" t="n">
+        <v>112457.6135103974</v>
+      </c>
+      <c r="F392" t="n">
+        <v>-0.0002936800205633542</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1543298320016014</v>
+      </c>
+      <c r="H392" t="n">
+        <v>-0.6487565508246312</v>
+      </c>
+      <c r="I392" t="n">
+        <v>4.764132664041259</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.2641047666141533</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.03916245126332588</v>
+      </c>
+      <c r="L392" t="n">
+        <v>-0.7172214601094596</v>
+      </c>
+      <c r="M392" t="n">
+        <v>2.09969529306094</v>
+      </c>
+      <c r="N392" t="n">
+        <v>-0.05048609355798119</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0.07676025502572331</v>
+      </c>
+      <c r="P392" t="n">
+        <v>-0.04394530487079103</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>2.156882298220685</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E393" t="n">
+        <v>111670.0798448132</v>
+      </c>
+      <c r="F393" t="n">
+        <v>-0.03411409254850937</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1370553137700598</v>
+      </c>
+      <c r="H393" t="n">
+        <v>-0.765143271326474</v>
+      </c>
+      <c r="I393" t="n">
+        <v>5.569029515826807</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.4959967553826868</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.01059582026591913</v>
+      </c>
+      <c r="L393" t="n">
+        <v>-0.01514285199917103</v>
+      </c>
+      <c r="M393" t="n">
+        <v>1.663557790814084</v>
+      </c>
+      <c r="N393" t="n">
+        <v>-0.05048609355798123</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0.06760057628564817</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0.06833136867292426</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>2.051023968041219</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E394" t="n">
+        <v>111755.7589752862</v>
+      </c>
+      <c r="F394" t="n">
+        <v>-0.02770118955574321</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1400204828551337</v>
+      </c>
+      <c r="H394" t="n">
+        <v>-0.263608381758998</v>
+      </c>
+      <c r="I394" t="n">
+        <v>4.878534593564482</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.4994216603121239</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.009152511499156205</v>
+      </c>
+      <c r="L394" t="n">
+        <v>-0.1213644036507729</v>
+      </c>
+      <c r="M394" t="n">
+        <v>1.921334939992117</v>
+      </c>
+      <c r="N394" t="n">
+        <v>-0.05048609355798123</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0.07032330795479494</v>
+      </c>
+      <c r="P394" t="n">
+        <v>-0.05420451236993538</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>2.215778265673307</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E395" t="n">
+        <v>111679.8640223027</v>
+      </c>
+      <c r="F395" t="n">
+        <v>-0.03284312000629162</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.154014745352272</v>
+      </c>
+      <c r="H395" t="n">
+        <v>-0.7949601440235577</v>
+      </c>
+      <c r="I395" t="n">
+        <v>6.163366665062721</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.5169561186157083</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.01016064815776268</v>
+      </c>
+      <c r="L395" t="n">
+        <v>-0.2810304976759443</v>
+      </c>
+      <c r="M395" t="n">
+        <v>1.845989007204349</v>
+      </c>
+      <c r="N395" t="n">
+        <v>-0.05048609355798123</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0.08874954104069099</v>
+      </c>
+      <c r="P395" t="n">
+        <v>-0.04583068154918625</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>2.139979584822752</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E396" t="n">
+        <v>111666.5225405059</v>
+      </c>
+      <c r="F396" t="n">
+        <v>-0.05058030847475746</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.164508674736923</v>
+      </c>
+      <c r="H396" t="n">
+        <v>-0.6950933036113355</v>
+      </c>
+      <c r="I396" t="n">
+        <v>5.012956620614996</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.372167060167827</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.0004528025084143649</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>1</v>
+      </c>
+      <c r="N396" t="n">
+        <v>-0.05048609355798125</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0.09247721443077625</v>
+      </c>
+      <c r="P396" t="n">
+        <v>-0.1023514227567582</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>2.155827460030027</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E397" t="n">
+        <v>111832.5791653157</v>
+      </c>
+      <c r="F397" t="n">
+        <v>-0.02580327913082217</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1321951162532141</v>
+      </c>
+      <c r="H397" t="n">
+        <v>-0.1376978415711794</v>
+      </c>
+      <c r="I397" t="n">
+        <v>3.261113816929032</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.4277346191916581</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.006477375570676819</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0.5617269463841342</v>
+      </c>
+      <c r="M397" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N397" t="n">
+        <v>-0.05048609355798123</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0.05080840519362127</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0.009116016850961181</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>2.157355969401749</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
           <t>2025-09-10</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E398" t="n">
+        <v>113993.9418785267</v>
+      </c>
+      <c r="F398" t="n">
+        <v>-0.01465248833798145</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1033554704649684</v>
+      </c>
+      <c r="H398" t="n">
+        <v>-0.4606119637827947</v>
+      </c>
+      <c r="I398" t="n">
+        <v>4.846217837762755</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1741306222569814</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.007661405384502213</v>
+      </c>
+      <c r="L398" t="n">
+        <v>-0.1494289167025337</v>
+      </c>
+      <c r="M398" t="n">
+        <v>1.834056543320003</v>
+      </c>
+      <c r="N398" t="n">
+        <v>-0.05048609355798121</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0.03035021832784694</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0.2214588971679675</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>1.998234151780058</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E399" t="n">
+        <v>114028.2038096776</v>
+      </c>
+      <c r="F399" t="n">
+        <v>-0.01297389370140632</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1160858698519495</v>
+      </c>
+      <c r="H399" t="n">
+        <v>-0.2925775517246894</v>
+      </c>
+      <c r="I399" t="n">
+        <v>4.9482245951439</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1732893829452975</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.006388042904982789</v>
+      </c>
+      <c r="L399" t="n">
+        <v>-0.1320200159195386</v>
+      </c>
+      <c r="M399" t="n">
+        <v>2.192210077531122</v>
+      </c>
+      <c r="N399" t="n">
+        <v>-0.05048609355798121</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0.04562265560594674</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0.09852355991923419</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>2.117824602523802</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E400" t="n">
+        <v>113972.4301232762</v>
+      </c>
+      <c r="F400" t="n">
+        <v>-0.01808311698640697</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1364557410892673</v>
+      </c>
+      <c r="H400" t="n">
+        <v>-0.7546068212074712</v>
+      </c>
+      <c r="I400" t="n">
+        <v>8.359587161463592</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1897922458443881</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.00710953225032518</v>
+      </c>
+      <c r="L400" t="n">
+        <v>-0.3236641155507869</v>
+      </c>
+      <c r="M400" t="n">
+        <v>2.042420822161466</v>
+      </c>
+      <c r="N400" t="n">
+        <v>-0.05048609355798121</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0.08838784840258213</v>
+      </c>
+      <c r="P400" t="n">
+        <v>-0.01028991277392241</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>2.187183805264057</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>0.02191780821917808</v>
+      </c>
+      <c r="E401" t="n">
+        <v>113968.4134717482</v>
+      </c>
+      <c r="F401" t="n">
+        <v>-0.01871483372635751</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1412410803627646</v>
+      </c>
+      <c r="H401" t="n">
+        <v>-1.051959857265147</v>
+      </c>
+      <c r="I401" t="n">
+        <v>9.44350494178971</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.2410106334485396</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.02458410332041821</v>
+      </c>
+      <c r="L401" t="n">
+        <v>1.171992255373215</v>
+      </c>
+      <c r="M401" t="n">
+        <v>3.796393522117083</v>
+      </c>
+      <c r="N401" t="n">
+        <v>-0.05048609355798121</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0.09845015795858778</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0.002751756402677316</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>2.149526970503327</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
         <is>
           <t>2025-09-12</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C402" t="inlineStr">
         <is>
           <t>2025-09-26</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D402" t="n">
         <v>0.005479452054794521</v>
       </c>
-      <c r="E392" t="n">
+      <c r="E402" t="n">
         <v>113892.031510227</v>
       </c>
-      <c r="F392" t="n">
+      <c r="F402" t="n">
         <v>-0.03117937887729277</v>
       </c>
-      <c r="G392" t="n">
+      <c r="G402" t="n">
         <v>0.1485199320274635</v>
       </c>
-      <c r="H392" t="n">
+      <c r="H402" t="n">
         <v>-0.5434261775285498</v>
       </c>
-      <c r="I392" t="n">
+      <c r="I402" t="n">
         <v>3.89298725166621</v>
       </c>
-      <c r="J392" t="n">
+      <c r="J402" t="n">
         <v>0.1152700735346838</v>
       </c>
-      <c r="K392" t="n">
+      <c r="K402" t="n">
         <v>0.005287000071784839</v>
       </c>
-      <c r="L392" t="n">
+      <c r="L402" t="n">
         <v>2.820306437580456e-16</v>
       </c>
-      <c r="M392" t="n">
+      <c r="M402" t="n">
         <v>1</v>
       </c>
-      <c r="N392" t="n">
-        <v>-0.06579314222947109</v>
-      </c>
-      <c r="O392" t="n">
-        <v>0.07051378229654159</v>
-      </c>
-      <c r="P392" t="n">
-        <v>-0.008380491957118541</v>
-      </c>
-      <c r="Q392" t="n">
-        <v>2.089766211270797</v>
+      <c r="N402" t="n">
+        <v>-0.05048609355798123</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0.06775664706436534</v>
+      </c>
+      <c r="P402" t="n">
+        <v>-0.009280319277935198</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>2.10709687872433</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E403" t="n">
+        <v>114907.1611602911</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.04110106206138803</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.08100610714862778</v>
+      </c>
+      <c r="H403" t="n">
+        <v>-0.3779824366373084</v>
+      </c>
+      <c r="I403" t="n">
+        <v>4.32887360222632</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.1644653861563335</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.004166984081917661</v>
+      </c>
+      <c r="L403" t="n">
+        <v>-0.009744353085738667</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1.829707928933755</v>
+      </c>
+      <c r="N403" t="n">
+        <v>-0.05048609355798114</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0.0003815807481365036</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0.3535953932420923</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>1.952613795111444</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E404" t="n">
+        <v>114907.3229185066</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.03426577685721082</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1072864368906373</v>
+      </c>
+      <c r="H404" t="n">
+        <v>-0.6763856222028046</v>
+      </c>
+      <c r="I404" t="n">
+        <v>6.83385722220373</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1568772835360597</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.003563904471037351</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.3221801397222507</v>
+      </c>
+      <c r="M404" t="n">
+        <v>2.100310050176578</v>
+      </c>
+      <c r="N404" t="n">
+        <v>-0.05048609355798115</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0.04373412621706171</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0.1937862756698434</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>2.063956578975328</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E405" t="n">
+        <v>114912.6081470953</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.02997203823671524</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1158857749884572</v>
+      </c>
+      <c r="H405" t="n">
+        <v>-0.6877102909796046</v>
+      </c>
+      <c r="I405" t="n">
+        <v>6.931938019205041</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1717729212645522</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.004079320509223575</v>
+      </c>
+      <c r="L405" t="n">
+        <v>-0.03643626733293952</v>
+      </c>
+      <c r="M405" t="n">
+        <v>1.679618112128374</v>
+      </c>
+      <c r="N405" t="n">
+        <v>-0.05048609355798116</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0.05326653893185956</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0.1407688634251817</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>2.097642397219917</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E406" t="n">
+        <v>114919.3780948793</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.0266177752194584</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1220424823457438</v>
+      </c>
+      <c r="H406" t="n">
+        <v>-0.5896884140553141</v>
+      </c>
+      <c r="I406" t="n">
+        <v>6.245935127005477</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.2268026515618569</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.02166618773604188</v>
+      </c>
+      <c r="L406" t="n">
+        <v>1.384061321255182</v>
+      </c>
+      <c r="M406" t="n">
+        <v>3.823793060073173</v>
+      </c>
+      <c r="N406" t="n">
+        <v>-0.05048609355798116</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0.05524376113927572</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0.09817738097410571</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>2.125880813936757</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E407" t="n">
+        <v>117243.5824423559</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.1871104740968699</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.07441708976951739</v>
+      </c>
+      <c r="H407" t="n">
+        <v>-0.3892419742533572</v>
+      </c>
+      <c r="I407" t="n">
+        <v>5.694989720529963</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.02538915433439373</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.005394826486436175</v>
+      </c>
+      <c r="L407" t="n">
+        <v>-0.2629081428452572</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N407" t="n">
+        <v>-0.05048609355798097</v>
+      </c>
+      <c r="O407" t="n">
+        <v>-0.007322866088495403</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0.3579767592450743</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>2.093876865897673</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>0.01095890410958904</v>
+      </c>
+      <c r="E408" t="n">
+        <v>117269.2265082631</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.1626413725246243</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.08425522926219284</v>
+      </c>
+      <c r="H408" t="n">
+        <v>-0.222155325015116</v>
+      </c>
+      <c r="I408" t="n">
+        <v>4.323408154166935</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.01431720391315161</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.004413884123218463</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.1640915620408306</v>
+      </c>
+      <c r="M408" t="n">
+        <v>1.671946117951479</v>
+      </c>
+      <c r="N408" t="n">
+        <v>-0.050486093557981</v>
+      </c>
+      <c r="O408" t="n">
+        <v>-0.00468502852891356</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0.2952000332154993</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>2.115765289277717</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="E409" t="n">
+        <v>117207.4900648898</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.1390160235293125</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1012491435117097</v>
+      </c>
+      <c r="H409" t="n">
+        <v>-0.693737401876694</v>
+      </c>
+      <c r="I409" t="n">
+        <v>6.661062592193561</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.03161928103081686</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.004728554788917312</v>
+      </c>
+      <c r="L409" t="n">
+        <v>-0.2541427140166077</v>
+      </c>
+      <c r="M409" t="n">
+        <v>1.538388068439291</v>
+      </c>
+      <c r="N409" t="n">
+        <v>-0.05048609355798103</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.02746908619662301</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0.2402316623322436</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>2.105799505377494</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>0.01643835616438356</v>
+      </c>
+      <c r="E410" t="n">
+        <v>117267.9785506385</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.1292054428984758</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1110550072809432</v>
+      </c>
+      <c r="H410" t="n">
+        <v>-0.4547091680753564</v>
+      </c>
+      <c r="I410" t="n">
+        <v>6.324924510814944</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.09494231968237128</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.02398949844442904</v>
+      </c>
+      <c r="L410" t="n">
+        <v>1.146734435186549</v>
+      </c>
+      <c r="M410" t="n">
+        <v>3.178402480160985</v>
+      </c>
+      <c r="N410" t="n">
+        <v>-0.05048609355798104</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0.03808761755972755</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0.1302921887264409</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>2.209855456462303</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E411" t="n">
+        <v>115709.9173001613</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.100698445198168</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1201249823975057</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.4888285800173214</v>
+      </c>
+      <c r="I411" t="n">
+        <v>4.940708217255506</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1113853598163298</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.003583592947688513</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1</v>
+      </c>
+      <c r="N411" t="n">
+        <v>-0.05048609355798107</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0.04934139362891246</v>
+      </c>
+      <c r="P411" t="n">
+        <v>-0.1193270115730902</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>2.499468243518753</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>0.00821917808219178</v>
+      </c>
+      <c r="E412" t="n">
+        <v>115613.021807891</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.06983442023580318</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1491046669228473</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.03491664728520097</v>
+      </c>
+      <c r="I412" t="n">
+        <v>4.654584489446504</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.2349163737712275</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.0329088847825759</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.4832169786564608</v>
+      </c>
+      <c r="M412" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N412" t="n">
+        <v>-0.05048609355798111</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0.07293730913633853</v>
+      </c>
+      <c r="P412" t="n">
+        <v>-0.1776071308971063</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>2.426093453061321</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>0.005479452054794521</v>
+      </c>
+      <c r="E413" t="n">
+        <v>117133.9122110062</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.2262942761140729</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2080062491388271</v>
+      </c>
+      <c r="H413" t="n">
+        <v>-0.08641494223191094</v>
+      </c>
+      <c r="I413" t="n">
+        <v>5.156825556682436</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.2750911985713857</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.02413827133004993</v>
+      </c>
+      <c r="L413" t="n">
+        <v>2.891019533645416e-16</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="N413" t="n">
+        <v>-0.05048609355798093</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0.1209343764665908</v>
+      </c>
+      <c r="P413" t="n">
+        <v>-0.5250905313849272</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>2.778244477944317</v>
       </c>
     </row>
   </sheetData>
